--- a/Reservas_internacionales.xlsx
+++ b/Reservas_internacionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B492A891-6CEE-4243-A7B1-FF66933FD23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007C65D7-F70E-484B-A865-7760046E2F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -59,13 +59,13 @@
     <t>Nota:  Los datos refieren al último viernes de cada año o mes.</t>
   </si>
   <si>
-    <t xml:space="preserve">             MMD Miles de millones de dólares.</t>
-  </si>
-  <si>
     <t>Reservas internacionales</t>
   </si>
   <si>
     <t>(MMD)</t>
+  </si>
+  <si>
+    <t>MMD Miles de millones de dólares.</t>
   </si>
 </sst>
 </file>
@@ -73,9 +73,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +102,22 @@
       <name val="Montserrat"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,12 +126,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -125,11 +145,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -137,116 +213,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/\y\y\y\y"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -257,16 +260,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50FAB962-9B31-4298-ABA3-8A7B8B9C9F5B}" name="Tabla3" displayName="Tabla3" ref="B4:C81" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{06D80863-A3AD-4C22-85BC-05BA2DFB088C}" name="Periodo" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{60052B64-29B6-4A81-94B4-6B103416241B}" name="Reserva Internacional" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,7 +488,7 @@
   <dimension ref="B2:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -514,7 +507,7 @@
   <sheetData>
     <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -531,7 +524,7 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -546,631 +539,629 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="5">
+      <c r="B5" s="10">
         <v>45413</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="11">
         <v>218.72629999999998</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>45383</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="9">
         <v>217.18979999999999</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="5">
+      <c r="B7" s="10">
         <v>45352</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="11">
         <v>217.19379999999998</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>45323</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="9">
         <v>213.72200000000001</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="5">
+      <c r="B9" s="10">
         <v>45292</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="11">
         <v>213.3159</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="6">
+      <c r="B10" s="8">
         <v>45261</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="9">
         <v>212.7619</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="5">
+      <c r="B11" s="10">
         <v>45231</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="11">
         <v>206.83920000000001</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="6">
+      <c r="B12" s="8">
         <v>45200</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="9">
         <v>204.4032</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="5">
+      <c r="B13" s="10">
         <v>45170</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="11">
         <v>203.76760000000002</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="6">
+      <c r="B14" s="8">
         <v>45139</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="9">
         <v>204.23849999999999</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="5">
+      <c r="B15" s="10">
         <v>45108</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="11">
         <v>204.07139999999998</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="6">
+      <c r="B16" s="8">
         <v>45078</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="9">
         <v>203.20929999999998</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="5">
+      <c r="B17" s="10">
         <v>45047</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="11">
         <v>202.66370000000001</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="6">
+      <c r="B18" s="8">
         <v>45017</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="9">
         <v>203.10400000000001</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="5">
+      <c r="B19" s="10">
         <v>44986</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="11">
         <v>202.33760000000001</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="6">
+      <c r="B20" s="8">
         <v>44958</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="9">
         <v>200.17829999999998</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="5">
+      <c r="B21" s="10">
         <v>44927</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="11">
         <v>200.99789999999999</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="6">
+      <c r="B22" s="8">
         <v>44896</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="9">
         <v>199.0942</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="5">
+      <c r="B23" s="10">
         <v>44866</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="11">
         <v>198.2405</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="6">
+      <c r="B24" s="8">
         <v>44835</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="9">
         <v>196.84710000000001</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="5">
+      <c r="B25" s="10">
         <v>44805</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="11">
         <v>196.91749999999999</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="6">
+      <c r="B26" s="8">
         <v>44774</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="9">
         <v>198.52929999999998</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="5">
+      <c r="B27" s="10">
         <v>44743</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="11">
         <v>199.47979999999998</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="6">
+      <c r="B28" s="8">
         <v>44713</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="9">
         <v>198.53700000000001</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="5">
+      <c r="B29" s="10">
         <v>44682</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="11">
         <v>199.50379999999998</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" s="6">
+      <c r="B30" s="8">
         <v>44652</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="9">
         <v>199.1746</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" s="5">
+      <c r="B31" s="10">
         <v>44621</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="11">
         <v>200.8065</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="6">
+      <c r="B32" s="8">
         <v>44593</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="9">
         <v>201.6764</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="5">
+      <c r="B33" s="10">
         <v>44562</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="11">
         <v>201.63770000000002</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="6">
+      <c r="B34" s="8">
         <v>44531</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="9">
         <v>202.39920000000001</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B35" s="5">
+      <c r="B35" s="10">
         <v>44501</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="11">
         <v>199.50190000000001</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="6">
+      <c r="B36" s="8">
         <v>44470</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="9">
         <v>198.85040000000001</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="5">
+      <c r="B37" s="10">
         <v>44440</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="11">
         <v>198.4144</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B38" s="6">
+      <c r="B38" s="8">
         <v>44409</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="9">
         <v>205.51249999999999</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B39" s="5">
+      <c r="B39" s="10">
         <v>44378</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="11">
         <v>193.42370000000003</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B40" s="6">
+      <c r="B40" s="8">
         <v>44348</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="9">
         <v>192.8819</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B41" s="5">
+      <c r="B41" s="10">
         <v>44317</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="11">
         <v>194.09710000000001</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B42" s="6">
+      <c r="B42" s="8">
         <v>44287</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="9">
         <v>195.26760000000002</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="5">
+      <c r="B43" s="10">
         <v>44256</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="11">
         <v>194.77420000000001</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="6">
+      <c r="B44" s="8">
         <v>44228</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="9">
         <v>195.26949999999999</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="5">
+      <c r="B45" s="10">
         <v>44197</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="11">
         <v>195.9461</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="6">
+      <c r="B46" s="8">
         <v>44166</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="9">
         <v>195.66720000000001</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="5">
+      <c r="B47" s="10">
         <v>44136</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="11">
         <v>194.28670000000002</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B48" s="6">
+      <c r="B48" s="8">
         <v>44105</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="9">
         <v>194.3511</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B49" s="5">
+      <c r="B49" s="10">
         <v>44075</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="11">
         <v>193.95660000000001</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B50" s="6">
+      <c r="B50" s="8">
         <v>44044</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="9">
         <v>193.33410000000001</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="5">
+      <c r="B51" s="10">
         <v>44013</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="11">
         <v>192.60560000000001</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B52" s="6">
+      <c r="B52" s="8">
         <v>43983</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="9">
         <v>189.61520000000002</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B53" s="5">
+      <c r="B53" s="10">
         <v>43952</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="11">
         <v>187.31560000000002</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B54" s="6">
+      <c r="B54" s="8">
         <v>43922</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="9">
         <v>186.65539999999999</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B55" s="5">
+      <c r="B55" s="10">
         <v>43891</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="11">
         <v>185.52879999999999</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B56" s="6">
+      <c r="B56" s="8">
         <v>43862</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="9">
         <v>184.24960000000002</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B57" s="5">
+      <c r="B57" s="10">
         <v>43831</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="11">
         <v>182.79640000000001</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B58" s="6">
+      <c r="B58" s="8">
         <v>43800</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="9">
         <v>180.87720000000002</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B59" s="5">
+      <c r="B59" s="10">
         <v>43770</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="11">
         <v>180.59729999999999</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B60" s="6">
+      <c r="B60" s="8">
         <v>43739</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="9">
         <v>180.7492</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B61" s="5">
+      <c r="B61" s="10">
         <v>43709</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="11">
         <v>180.20829999999998</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B62" s="6">
+      <c r="B62" s="8">
         <v>43678</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="9">
         <v>180.37700000000001</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B63" s="5">
+      <c r="B63" s="10">
         <v>43647</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="11">
         <v>179.00659999999999</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B64" s="6">
+      <c r="B64" s="8">
         <v>43617</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="9">
         <v>178.86760000000001</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B65" s="5">
+      <c r="B65" s="10">
         <v>43586</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="11">
         <v>177.85589999999999</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B66" s="6">
+      <c r="B66" s="8">
         <v>43556</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="9">
         <v>176.74250000000001</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B67" s="5">
+      <c r="B67" s="10">
         <v>43525</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="11">
         <v>176.64860000000002</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B68" s="6">
+      <c r="B68" s="8">
         <v>43497</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="9">
         <v>175.73410000000001</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B69" s="5">
+      <c r="B69" s="10">
         <v>43466</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="11">
         <v>175.57229999999998</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B70" s="6">
+      <c r="B70" s="8">
         <v>43435</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="9">
         <v>174.79249999999999</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B71" s="5">
+      <c r="B71" s="10">
         <v>43405</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="11">
         <v>173.77529999999999</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B72" s="6">
+      <c r="B72" s="8">
         <v>43374</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="9">
         <v>173.46220000000002</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B73" s="5">
+      <c r="B73" s="10">
         <v>43344</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="11">
         <v>173.56610000000001</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B74" s="6">
+      <c r="B74" s="8">
         <v>43313</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="9">
         <v>173.6061</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B75" s="5">
+      <c r="B75" s="10">
         <v>43282</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="11">
         <v>173.2835</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B76" s="6">
+      <c r="B76" s="8">
         <v>43252</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="9">
         <v>173.2114</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B77" s="5">
+      <c r="B77" s="10">
         <v>43221</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="11">
         <v>173.31120000000001</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B78" s="6">
+      <c r="B78" s="8">
         <v>43191</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="9">
         <v>173.1146</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B79" s="5">
+      <c r="B79" s="10">
         <v>43160</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="11">
         <v>173.23160000000001</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B80" s="6">
+      <c r="B80" s="8">
         <v>43132</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="9">
         <v>172.89010000000002</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B81" s="5">
+      <c r="B81" s="12">
         <v>43101</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="13">
         <v>173.20520000000002</v>
       </c>
     </row>
@@ -1178,22 +1169,22 @@
       <c r="B82" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B83" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
+      <c r="B83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
       <c r="I83" t="s">
         <v>3</v>
       </c>
@@ -1202,22 +1193,22 @@
       <c r="B84" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E86" s="2"/>
@@ -1226,8 +1217,5 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Reservas_internacionales.xlsx
+++ b/Reservas_internacionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007C65D7-F70E-484B-A865-7760046E2F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB684E91-CF66-415A-BE4E-AEBD273A4BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -137,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -200,12 +200,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -229,19 +251,31 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -548,10 +582,10 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="10">
+      <c r="B5" s="14">
         <v>45413</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="15">
         <v>218.72629999999998</v>
       </c>
       <c r="D5" s="2"/>
@@ -582,18 +616,18 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="10">
+      <c r="B9" s="12">
         <v>45292</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="13">
         <v>213.3159</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="8">
+      <c r="B10" s="16">
         <v>45261</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="17">
         <v>212.7619</v>
       </c>
     </row>
@@ -678,18 +712,18 @@
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="10">
+      <c r="B21" s="12">
         <v>44927</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="13">
         <v>200.99789999999999</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="8">
+      <c r="B22" s="16">
         <v>44896</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="17">
         <v>199.0942</v>
       </c>
     </row>
@@ -774,18 +808,18 @@
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="10">
+      <c r="B33" s="12">
         <v>44562</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="13">
         <v>201.63770000000002</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="8">
+      <c r="B34" s="16">
         <v>44531</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="17">
         <v>202.39920000000001</v>
       </c>
     </row>
@@ -870,18 +904,18 @@
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="10">
+      <c r="B45" s="12">
         <v>44197</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="13">
         <v>195.9461</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="8">
+      <c r="B46" s="16">
         <v>44166</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="17">
         <v>195.66720000000001</v>
       </c>
     </row>
@@ -966,18 +1000,18 @@
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B57" s="10">
+      <c r="B57" s="12">
         <v>43831</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="13">
         <v>182.79640000000001</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B58" s="8">
+      <c r="B58" s="16">
         <v>43800</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="17">
         <v>180.87720000000002</v>
       </c>
     </row>
@@ -1062,10 +1096,10 @@
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B69" s="10">
+      <c r="B69" s="12">
         <v>43466</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="13">
         <v>175.57229999999998</v>
       </c>
     </row>

--- a/Reservas_internacionales.xlsx
+++ b/Reservas_internacionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1980F2E-21B0-4627-B862-20DCC7EB95C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3457A1B3-C4F3-46DE-8646-AAD358A9AB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="22">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -66,6 +66,42 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
   </si>
 </sst>
 </file>
@@ -236,10 +272,6 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -257,6 +289,10 @@
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -342,8 +378,8 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3C1267CC-CEB3-4CE5-A47F-745D74288008}" name="Año" dataDxfId="2" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="3" xr3:uid="{5156FC8D-E55C-42D2-A722-63A77E36CB21}" name="Mes" dataDxfId="0" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="2" xr3:uid="{ECF73F1B-D9AD-4FF1-92AD-C205FC8EE42E}" name="Reserva Internacional" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5156FC8D-E55C-42D2-A722-63A77E36CB21}" name="Mes" dataDxfId="1" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="2" xr3:uid="{ECF73F1B-D9AD-4FF1-92AD-C205FC8EE42E}" name="Reserva Internacional" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -644,8 +680,8 @@
       <c r="B5" s="14">
         <v>2024</v>
       </c>
-      <c r="C5" s="14">
-        <v>8</v>
+      <c r="C5" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="7">
         <v>224.77789999999999</v>
@@ -655,8 +691,8 @@
       <c r="B6" s="15">
         <v>2024</v>
       </c>
-      <c r="C6" s="15">
-        <v>7</v>
+      <c r="C6" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="8">
         <v>222.34829999999999</v>
@@ -666,8 +702,8 @@
       <c r="B7" s="14">
         <v>2024</v>
       </c>
-      <c r="C7" s="14">
-        <v>6</v>
+      <c r="C7" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="7">
         <v>219.99689999999998</v>
@@ -679,8 +715,8 @@
       <c r="B8" s="15">
         <v>2024</v>
       </c>
-      <c r="C8" s="15">
-        <v>5</v>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="8">
         <v>218.72629999999998</v>
@@ -692,8 +728,8 @@
       <c r="B9" s="14">
         <v>2024</v>
       </c>
-      <c r="C9" s="14">
-        <v>4</v>
+      <c r="C9" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="7">
         <v>217.18979999999999</v>
@@ -704,8 +740,8 @@
       <c r="B10" s="15">
         <v>2024</v>
       </c>
-      <c r="C10" s="15">
-        <v>3</v>
+      <c r="C10" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="8">
         <v>217.19379999999998</v>
@@ -716,8 +752,8 @@
       <c r="B11" s="14">
         <v>2024</v>
       </c>
-      <c r="C11" s="14">
-        <v>2</v>
+      <c r="C11" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="7">
         <v>213.72200000000001</v>
@@ -728,8 +764,8 @@
       <c r="B12" s="16">
         <v>2024</v>
       </c>
-      <c r="C12" s="16">
-        <v>1</v>
+      <c r="C12" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D12" s="10">
         <v>213.3159</v>
@@ -740,8 +776,8 @@
       <c r="B13" s="14">
         <v>2023</v>
       </c>
-      <c r="C13" s="14">
-        <v>12</v>
+      <c r="C13" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D13" s="7">
         <v>212.7619</v>
@@ -752,8 +788,8 @@
       <c r="B14" s="15">
         <v>2023</v>
       </c>
-      <c r="C14" s="15">
-        <v>11</v>
+      <c r="C14" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="8">
         <v>206.83920000000001</v>
@@ -764,8 +800,8 @@
       <c r="B15" s="14">
         <v>2023</v>
       </c>
-      <c r="C15" s="14">
-        <v>10</v>
+      <c r="C15" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="7">
         <v>204.4032</v>
@@ -776,8 +812,8 @@
       <c r="B16" s="15">
         <v>2023</v>
       </c>
-      <c r="C16" s="15">
-        <v>9</v>
+      <c r="C16" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D16" s="8">
         <v>203.76760000000002</v>
@@ -788,8 +824,8 @@
       <c r="B17" s="14">
         <v>2023</v>
       </c>
-      <c r="C17" s="14">
-        <v>8</v>
+      <c r="C17" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D17" s="7">
         <v>204.23849999999999</v>
@@ -800,8 +836,8 @@
       <c r="B18" s="15">
         <v>2023</v>
       </c>
-      <c r="C18" s="15">
-        <v>7</v>
+      <c r="C18" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="D18" s="8">
         <v>204.07139999999998</v>
@@ -812,8 +848,8 @@
       <c r="B19" s="14">
         <v>2023</v>
       </c>
-      <c r="C19" s="14">
-        <v>6</v>
+      <c r="C19" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D19" s="7">
         <v>203.20929999999998</v>
@@ -824,8 +860,8 @@
       <c r="B20" s="15">
         <v>2023</v>
       </c>
-      <c r="C20" s="15">
-        <v>5</v>
+      <c r="C20" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="D20" s="8">
         <v>202.66370000000001</v>
@@ -836,8 +872,8 @@
       <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C21" s="14">
-        <v>4</v>
+      <c r="C21" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D21" s="7">
         <v>203.10400000000001</v>
@@ -848,8 +884,8 @@
       <c r="B22" s="15">
         <v>2023</v>
       </c>
-      <c r="C22" s="15">
-        <v>3</v>
+      <c r="C22" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="D22" s="8">
         <v>202.33760000000001</v>
@@ -860,8 +896,8 @@
       <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C23" s="14">
-        <v>2</v>
+      <c r="C23" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D23" s="7">
         <v>200.17829999999998</v>
@@ -872,8 +908,8 @@
       <c r="B24" s="16">
         <v>2023</v>
       </c>
-      <c r="C24" s="16">
-        <v>1</v>
+      <c r="C24" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D24" s="10">
         <v>200.99789999999999</v>
@@ -884,8 +920,8 @@
       <c r="B25" s="14">
         <v>2022</v>
       </c>
-      <c r="C25" s="14">
-        <v>12</v>
+      <c r="C25" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D25" s="7">
         <v>199.0942</v>
@@ -896,8 +932,8 @@
       <c r="B26" s="15">
         <v>2022</v>
       </c>
-      <c r="C26" s="15">
-        <v>11</v>
+      <c r="C26" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="D26" s="8">
         <v>198.2405</v>
@@ -908,8 +944,8 @@
       <c r="B27" s="14">
         <v>2022</v>
       </c>
-      <c r="C27" s="14">
-        <v>10</v>
+      <c r="C27" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D27" s="7">
         <v>196.84710000000001</v>
@@ -920,8 +956,8 @@
       <c r="B28" s="15">
         <v>2022</v>
       </c>
-      <c r="C28" s="15">
-        <v>9</v>
+      <c r="C28" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D28" s="8">
         <v>196.91749999999999</v>
@@ -932,8 +968,8 @@
       <c r="B29" s="14">
         <v>2022</v>
       </c>
-      <c r="C29" s="14">
-        <v>8</v>
+      <c r="C29" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D29" s="7">
         <v>198.52929999999998</v>
@@ -944,8 +980,8 @@
       <c r="B30" s="15">
         <v>2022</v>
       </c>
-      <c r="C30" s="15">
-        <v>7</v>
+      <c r="C30" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="D30" s="8">
         <v>199.47979999999998</v>
@@ -956,8 +992,8 @@
       <c r="B31" s="14">
         <v>2022</v>
       </c>
-      <c r="C31" s="14">
-        <v>6</v>
+      <c r="C31" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D31" s="7">
         <v>198.53700000000001</v>
@@ -968,8 +1004,8 @@
       <c r="B32" s="15">
         <v>2022</v>
       </c>
-      <c r="C32" s="15">
-        <v>5</v>
+      <c r="C32" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="D32" s="8">
         <v>199.50379999999998</v>
@@ -980,8 +1016,8 @@
       <c r="B33" s="14">
         <v>2022</v>
       </c>
-      <c r="C33" s="14">
-        <v>4</v>
+      <c r="C33" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D33" s="7">
         <v>199.1746</v>
@@ -992,8 +1028,8 @@
       <c r="B34" s="15">
         <v>2022</v>
       </c>
-      <c r="C34" s="15">
-        <v>3</v>
+      <c r="C34" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="D34" s="8">
         <v>200.8065</v>
@@ -1004,8 +1040,8 @@
       <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C35" s="14">
-        <v>2</v>
+      <c r="C35" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D35" s="7">
         <v>201.6764</v>
@@ -1016,8 +1052,8 @@
       <c r="B36" s="16">
         <v>2022</v>
       </c>
-      <c r="C36" s="16">
-        <v>1</v>
+      <c r="C36" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D36" s="10">
         <v>201.63770000000002</v>
@@ -1028,8 +1064,8 @@
       <c r="B37" s="14">
         <v>2021</v>
       </c>
-      <c r="C37" s="14">
-        <v>12</v>
+      <c r="C37" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D37" s="7">
         <v>202.39920000000001</v>
@@ -1040,8 +1076,8 @@
       <c r="B38" s="15">
         <v>2021</v>
       </c>
-      <c r="C38" s="15">
-        <v>11</v>
+      <c r="C38" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="D38" s="8">
         <v>199.50190000000001</v>
@@ -1052,8 +1088,8 @@
       <c r="B39" s="14">
         <v>2021</v>
       </c>
-      <c r="C39" s="14">
-        <v>10</v>
+      <c r="C39" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D39" s="7">
         <v>198.85040000000001</v>
@@ -1064,8 +1100,8 @@
       <c r="B40" s="15">
         <v>2021</v>
       </c>
-      <c r="C40" s="15">
-        <v>9</v>
+      <c r="C40" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D40" s="8">
         <v>198.4144</v>
@@ -1076,8 +1112,8 @@
       <c r="B41" s="14">
         <v>2021</v>
       </c>
-      <c r="C41" s="14">
-        <v>8</v>
+      <c r="C41" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D41" s="7">
         <v>205.51249999999999</v>
@@ -1088,8 +1124,8 @@
       <c r="B42" s="15">
         <v>2021</v>
       </c>
-      <c r="C42" s="15">
-        <v>7</v>
+      <c r="C42" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="D42" s="8">
         <v>193.42370000000003</v>
@@ -1100,8 +1136,8 @@
       <c r="B43" s="14">
         <v>2021</v>
       </c>
-      <c r="C43" s="14">
-        <v>6</v>
+      <c r="C43" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D43" s="7">
         <v>192.8819</v>
@@ -1112,8 +1148,8 @@
       <c r="B44" s="15">
         <v>2021</v>
       </c>
-      <c r="C44" s="15">
-        <v>5</v>
+      <c r="C44" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="D44" s="8">
         <v>194.09710000000001</v>
@@ -1124,8 +1160,8 @@
       <c r="B45" s="14">
         <v>2021</v>
       </c>
-      <c r="C45" s="14">
-        <v>4</v>
+      <c r="C45" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D45" s="7">
         <v>195.26760000000002</v>
@@ -1136,8 +1172,8 @@
       <c r="B46" s="15">
         <v>2021</v>
       </c>
-      <c r="C46" s="15">
-        <v>3</v>
+      <c r="C46" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="D46" s="8">
         <v>194.77420000000001</v>
@@ -1148,8 +1184,8 @@
       <c r="B47" s="14">
         <v>2021</v>
       </c>
-      <c r="C47" s="14">
-        <v>2</v>
+      <c r="C47" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D47" s="7">
         <v>195.26949999999999</v>
@@ -1160,8 +1196,8 @@
       <c r="B48" s="16">
         <v>2021</v>
       </c>
-      <c r="C48" s="16">
-        <v>1</v>
+      <c r="C48" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D48" s="10">
         <v>195.9461</v>
@@ -1172,8 +1208,8 @@
       <c r="B49" s="14">
         <v>2020</v>
       </c>
-      <c r="C49" s="14">
-        <v>12</v>
+      <c r="C49" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D49" s="7">
         <v>195.66720000000001</v>
@@ -1184,8 +1220,8 @@
       <c r="B50" s="15">
         <v>2020</v>
       </c>
-      <c r="C50" s="15">
-        <v>11</v>
+      <c r="C50" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="D50" s="8">
         <v>194.28670000000002</v>
@@ -1196,8 +1232,8 @@
       <c r="B51" s="14">
         <v>2020</v>
       </c>
-      <c r="C51" s="14">
-        <v>10</v>
+      <c r="C51" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D51" s="7">
         <v>194.3511</v>
@@ -1208,8 +1244,8 @@
       <c r="B52" s="15">
         <v>2020</v>
       </c>
-      <c r="C52" s="15">
-        <v>9</v>
+      <c r="C52" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D52" s="8">
         <v>193.95660000000001</v>
@@ -1220,8 +1256,8 @@
       <c r="B53" s="14">
         <v>2020</v>
       </c>
-      <c r="C53" s="14">
-        <v>8</v>
+      <c r="C53" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D53" s="7">
         <v>193.33410000000001</v>
@@ -1232,8 +1268,8 @@
       <c r="B54" s="15">
         <v>2020</v>
       </c>
-      <c r="C54" s="15">
-        <v>7</v>
+      <c r="C54" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="D54" s="8">
         <v>192.60560000000001</v>
@@ -1244,8 +1280,8 @@
       <c r="B55" s="14">
         <v>2020</v>
       </c>
-      <c r="C55" s="14">
-        <v>6</v>
+      <c r="C55" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D55" s="7">
         <v>189.61520000000002</v>
@@ -1256,8 +1292,8 @@
       <c r="B56" s="15">
         <v>2020</v>
       </c>
-      <c r="C56" s="15">
-        <v>5</v>
+      <c r="C56" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="D56" s="8">
         <v>187.31560000000002</v>
@@ -1268,8 +1304,8 @@
       <c r="B57" s="14">
         <v>2020</v>
       </c>
-      <c r="C57" s="14">
-        <v>4</v>
+      <c r="C57" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="7">
         <v>186.65539999999999</v>
@@ -1280,8 +1316,8 @@
       <c r="B58" s="15">
         <v>2020</v>
       </c>
-      <c r="C58" s="15">
-        <v>3</v>
+      <c r="C58" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="D58" s="8">
         <v>185.52879999999999</v>
@@ -1292,8 +1328,8 @@
       <c r="B59" s="14">
         <v>2020</v>
       </c>
-      <c r="C59" s="14">
-        <v>2</v>
+      <c r="C59" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D59" s="7">
         <v>184.24960000000002</v>
@@ -1304,8 +1340,8 @@
       <c r="B60" s="16">
         <v>2020</v>
       </c>
-      <c r="C60" s="16">
-        <v>1</v>
+      <c r="C60" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D60" s="10">
         <v>182.79640000000001</v>
@@ -1316,8 +1352,8 @@
       <c r="B61" s="14">
         <v>2019</v>
       </c>
-      <c r="C61" s="14">
-        <v>12</v>
+      <c r="C61" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D61" s="7">
         <v>180.87720000000002</v>
@@ -1328,8 +1364,8 @@
       <c r="B62" s="15">
         <v>2019</v>
       </c>
-      <c r="C62" s="15">
-        <v>11</v>
+      <c r="C62" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="D62" s="8">
         <v>180.59729999999999</v>
@@ -1340,8 +1376,8 @@
       <c r="B63" s="14">
         <v>2019</v>
       </c>
-      <c r="C63" s="14">
-        <v>10</v>
+      <c r="C63" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D63" s="7">
         <v>180.7492</v>
@@ -1352,8 +1388,8 @@
       <c r="B64" s="15">
         <v>2019</v>
       </c>
-      <c r="C64" s="15">
-        <v>9</v>
+      <c r="C64" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D64" s="8">
         <v>180.20829999999998</v>
@@ -1364,8 +1400,8 @@
       <c r="B65" s="14">
         <v>2019</v>
       </c>
-      <c r="C65" s="14">
-        <v>8</v>
+      <c r="C65" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D65" s="7">
         <v>180.37700000000001</v>
@@ -1376,8 +1412,8 @@
       <c r="B66" s="15">
         <v>2019</v>
       </c>
-      <c r="C66" s="15">
-        <v>7</v>
+      <c r="C66" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="D66" s="8">
         <v>179.00659999999999</v>
@@ -1388,8 +1424,8 @@
       <c r="B67" s="14">
         <v>2019</v>
       </c>
-      <c r="C67" s="14">
-        <v>6</v>
+      <c r="C67" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D67" s="7">
         <v>178.86760000000001</v>
@@ -1400,8 +1436,8 @@
       <c r="B68" s="15">
         <v>2019</v>
       </c>
-      <c r="C68" s="15">
-        <v>5</v>
+      <c r="C68" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="D68" s="8">
         <v>177.85589999999999</v>
@@ -1412,8 +1448,8 @@
       <c r="B69" s="14">
         <v>2019</v>
       </c>
-      <c r="C69" s="14">
-        <v>4</v>
+      <c r="C69" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D69" s="7">
         <v>176.74250000000001</v>
@@ -1424,8 +1460,8 @@
       <c r="B70" s="15">
         <v>2019</v>
       </c>
-      <c r="C70" s="15">
-        <v>3</v>
+      <c r="C70" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="D70" s="8">
         <v>176.64860000000002</v>
@@ -1436,8 +1472,8 @@
       <c r="B71" s="14">
         <v>2019</v>
       </c>
-      <c r="C71" s="14">
-        <v>2</v>
+      <c r="C71" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D71" s="7">
         <v>175.73410000000001</v>
@@ -1448,8 +1484,8 @@
       <c r="B72" s="16">
         <v>2019</v>
       </c>
-      <c r="C72" s="16">
-        <v>1</v>
+      <c r="C72" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D72" s="10">
         <v>175.57229999999998</v>
@@ -1460,8 +1496,8 @@
       <c r="B73" s="14">
         <v>2018</v>
       </c>
-      <c r="C73" s="14">
-        <v>12</v>
+      <c r="C73" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D73" s="7">
         <v>174.79249999999999</v>
@@ -1472,8 +1508,8 @@
       <c r="B74" s="15">
         <v>2018</v>
       </c>
-      <c r="C74" s="15">
-        <v>11</v>
+      <c r="C74" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="D74" s="8">
         <v>173.77529999999999</v>
@@ -1484,8 +1520,8 @@
       <c r="B75" s="14">
         <v>2018</v>
       </c>
-      <c r="C75" s="14">
-        <v>10</v>
+      <c r="C75" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D75" s="7">
         <v>173.46220000000002</v>
@@ -1496,8 +1532,8 @@
       <c r="B76" s="15">
         <v>2018</v>
       </c>
-      <c r="C76" s="15">
-        <v>9</v>
+      <c r="C76" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D76" s="8">
         <v>173.56610000000001</v>
@@ -1508,8 +1544,8 @@
       <c r="B77" s="14">
         <v>2018</v>
       </c>
-      <c r="C77" s="14">
-        <v>8</v>
+      <c r="C77" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D77" s="7">
         <v>173.6061</v>
@@ -1520,8 +1556,8 @@
       <c r="B78" s="15">
         <v>2018</v>
       </c>
-      <c r="C78" s="15">
-        <v>7</v>
+      <c r="C78" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="D78" s="8">
         <v>173.2835</v>
@@ -1532,8 +1568,8 @@
       <c r="B79" s="14">
         <v>2018</v>
       </c>
-      <c r="C79" s="14">
-        <v>6</v>
+      <c r="C79" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D79" s="7">
         <v>173.2114</v>
@@ -1544,8 +1580,8 @@
       <c r="B80" s="15">
         <v>2018</v>
       </c>
-      <c r="C80" s="15">
-        <v>5</v>
+      <c r="C80" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="D80" s="8">
         <v>173.31120000000001</v>
@@ -1556,8 +1592,8 @@
       <c r="B81" s="14">
         <v>2018</v>
       </c>
-      <c r="C81" s="14">
-        <v>4</v>
+      <c r="C81" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D81" s="7">
         <v>173.1146</v>
@@ -1568,8 +1604,8 @@
       <c r="B82" s="15">
         <v>2018</v>
       </c>
-      <c r="C82" s="15">
-        <v>3</v>
+      <c r="C82" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="D82" s="8">
         <v>173.23160000000001</v>
@@ -1580,8 +1616,8 @@
       <c r="B83" s="14">
         <v>2018</v>
       </c>
-      <c r="C83" s="14">
-        <v>2</v>
+      <c r="C83" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D83" s="7">
         <v>172.89010000000002</v>
@@ -1592,8 +1628,8 @@
       <c r="B84" s="16">
         <v>2018</v>
       </c>
-      <c r="C84" s="16">
-        <v>1</v>
+      <c r="C84" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D84" s="10">
         <v>173.20520000000002</v>

--- a/Reservas_internacionales.xlsx
+++ b/Reservas_internacionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3457A1B3-C4F3-46DE-8646-AAD358A9AB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CBE25E-6B41-4F1E-B119-33F9C9200327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="22">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -65,9 +65,6 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Actualización: agosto 2024.</t>
-  </si>
-  <si>
     <t>Ago.</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Sep.</t>
+  </si>
+  <si>
+    <t>Actualización: septiembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -247,9 +247,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -263,6 +260,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -367,8 +367,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D84" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="B4:D84" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D86" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="B4:D86" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -608,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O90"/>
+  <dimension ref="B2:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -666,10 +666,10 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -681,70 +681,69 @@
         <v>2024</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8">
+        <v>226.7243</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
         <v>224.77789999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="15">
-        <v>2024</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8">
-        <v>222.34829999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14">
         <v>2024</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8">
+        <v>222.34829999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7">
         <v>219.99689999999998</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="15">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="8">
-        <v>218.72629999999998</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="14">
         <v>2024</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="7">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8">
+        <v>218.72629999999998</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B10" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7">
         <v>217.18979999999999</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="15">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8">
-        <v>217.19379999999998</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -753,46 +752,46 @@
         <v>2024</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8">
+        <v>217.19379999999998</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B12" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7">
+        <v>213.72200000000001</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="7">
-        <v>213.72200000000001</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="16">
-        <v>2024</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="D13" s="10">
+        <v>213.3159</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="13">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="10">
-        <v>213.3159</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="14">
-        <v>2023</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="D14" s="7">
         <v>212.7619</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="8">
-        <v>206.83920000000001</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -801,22 +800,22 @@
         <v>2023</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8">
+        <v>206.83920000000001</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B16" s="13">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7">
         <v>204.4032</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="8">
-        <v>203.76760000000002</v>
       </c>
       <c r="F16" s="4"/>
     </row>
@@ -825,22 +824,22 @@
         <v>2023</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="7">
+        <v>20</v>
+      </c>
+      <c r="D17" s="8">
+        <v>203.76760000000002</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="13">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7">
         <v>204.23849999999999</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="8">
-        <v>204.07139999999998</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -849,22 +848,22 @@
         <v>2023</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="7">
+        <v>10</v>
+      </c>
+      <c r="D19" s="8">
+        <v>204.07139999999998</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="13">
+        <v>2023</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7">
         <v>203.20929999999998</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="8">
-        <v>202.66370000000001</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -873,22 +872,22 @@
         <v>2023</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="7">
+        <v>12</v>
+      </c>
+      <c r="D21" s="8">
+        <v>202.66370000000001</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="13">
+        <v>2023</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="7">
         <v>203.10400000000001</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="8">
-        <v>202.33760000000001</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -897,46 +896,46 @@
         <v>2023</v>
       </c>
       <c r="C23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="8">
+        <v>202.33760000000001</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="13">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7">
+        <v>200.17829999999998</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="7">
-        <v>200.17829999999998</v>
-      </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="16">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="16" t="s">
+      <c r="D25" s="10">
+        <v>200.99789999999999</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="10">
-        <v>200.99789999999999</v>
-      </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="14">
-        <v>2022</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="D26" s="7">
         <v>199.0942</v>
-      </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="15">
-        <v>2022</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="8">
-        <v>198.2405</v>
       </c>
       <c r="F26" s="4"/>
     </row>
@@ -945,22 +944,22 @@
         <v>2022</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="7">
+        <v>18</v>
+      </c>
+      <c r="D27" s="8">
+        <v>198.2405</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="7">
         <v>196.84710000000001</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="15">
-        <v>2022</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="8">
-        <v>196.91749999999999</v>
       </c>
       <c r="F28" s="4"/>
     </row>
@@ -969,22 +968,22 @@
         <v>2022</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="7">
+        <v>20</v>
+      </c>
+      <c r="D29" s="8">
+        <v>196.91749999999999</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="7">
         <v>198.52929999999998</v>
-      </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="15">
-        <v>2022</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="8">
-        <v>199.47979999999998</v>
       </c>
       <c r="F30" s="4"/>
     </row>
@@ -993,22 +992,22 @@
         <v>2022</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="7">
+        <v>10</v>
+      </c>
+      <c r="D31" s="8">
+        <v>199.47979999999998</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="7">
         <v>198.53700000000001</v>
-      </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="15">
-        <v>2022</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="8">
-        <v>199.50379999999998</v>
       </c>
       <c r="F32" s="4"/>
     </row>
@@ -1017,22 +1016,22 @@
         <v>2022</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="7">
+        <v>12</v>
+      </c>
+      <c r="D33" s="8">
+        <v>199.50379999999998</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="7">
         <v>199.1746</v>
-      </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="15">
-        <v>2022</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="8">
-        <v>200.8065</v>
       </c>
       <c r="F34" s="4"/>
     </row>
@@ -1041,70 +1040,70 @@
         <v>2022</v>
       </c>
       <c r="C35" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="8">
+        <v>200.8065</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="7">
+        <v>201.6764</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="15">
+        <v>2022</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="7">
-        <v>201.6764</v>
-      </c>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="16">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="16" t="s">
+      <c r="D37" s="10">
+        <v>201.63770000000002</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="13">
+        <v>2021</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="10">
-        <v>201.63770000000002</v>
-      </c>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="14">
-        <v>2021</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="7">
+      <c r="D38" s="7">
         <v>202.39920000000001</v>
       </c>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="15">
-        <v>2021</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="8">
-        <v>199.50190000000001</v>
-      </c>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="14">
         <v>2021</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="7">
+        <v>18</v>
+      </c>
+      <c r="D39" s="8">
+        <v>199.50190000000001</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="13">
+        <v>2021</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="7">
         <v>198.85040000000001</v>
-      </c>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="15">
-        <v>2021</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="8">
-        <v>198.4144</v>
       </c>
       <c r="F40" s="4"/>
     </row>
@@ -1113,22 +1112,22 @@
         <v>2021</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="7">
+        <v>20</v>
+      </c>
+      <c r="D41" s="8">
+        <v>198.4144</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="13">
+        <v>2021</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="7">
         <v>205.51249999999999</v>
-      </c>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="15">
-        <v>2021</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="8">
-        <v>193.42370000000003</v>
       </c>
       <c r="F42" s="4"/>
     </row>
@@ -1137,22 +1136,22 @@
         <v>2021</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="7">
+        <v>10</v>
+      </c>
+      <c r="D43" s="8">
+        <v>193.42370000000003</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="13">
+        <v>2021</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="7">
         <v>192.8819</v>
-      </c>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="15">
-        <v>2021</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="8">
-        <v>194.09710000000001</v>
       </c>
       <c r="F44" s="4"/>
     </row>
@@ -1161,22 +1160,22 @@
         <v>2021</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="7">
+        <v>12</v>
+      </c>
+      <c r="D45" s="8">
+        <v>194.09710000000001</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="13">
+        <v>2021</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="7">
         <v>195.26760000000002</v>
-      </c>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="15">
-        <v>2021</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="8">
-        <v>194.77420000000001</v>
       </c>
       <c r="F46" s="4"/>
     </row>
@@ -1185,46 +1184,46 @@
         <v>2021</v>
       </c>
       <c r="C47" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="8">
+        <v>194.77420000000001</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="13">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="7">
+        <v>195.26949999999999</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="15">
+        <v>2021</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="7">
-        <v>195.26949999999999</v>
-      </c>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="16">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="16" t="s">
+      <c r="D49" s="10">
+        <v>195.9461</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="10">
-        <v>195.9461</v>
-      </c>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="14">
-        <v>2020</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="7">
+      <c r="D50" s="7">
         <v>195.66720000000001</v>
-      </c>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="15">
-        <v>2020</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="8">
-        <v>194.28670000000002</v>
       </c>
       <c r="F50" s="4"/>
     </row>
@@ -1233,22 +1232,22 @@
         <v>2020</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="7">
+        <v>18</v>
+      </c>
+      <c r="D51" s="8">
+        <v>194.28670000000002</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="7">
         <v>194.3511</v>
-      </c>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="15">
-        <v>2020</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="8">
-        <v>193.95660000000001</v>
       </c>
       <c r="F52" s="4"/>
     </row>
@@ -1257,22 +1256,22 @@
         <v>2020</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="7">
+        <v>20</v>
+      </c>
+      <c r="D53" s="8">
+        <v>193.95660000000001</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="7">
         <v>193.33410000000001</v>
-      </c>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="15">
-        <v>2020</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="8">
-        <v>192.60560000000001</v>
       </c>
       <c r="F54" s="4"/>
     </row>
@@ -1281,22 +1280,22 @@
         <v>2020</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="7">
+        <v>10</v>
+      </c>
+      <c r="D55" s="8">
+        <v>192.60560000000001</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="7">
         <v>189.61520000000002</v>
-      </c>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="15">
-        <v>2020</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="8">
-        <v>187.31560000000002</v>
       </c>
       <c r="F56" s="4"/>
     </row>
@@ -1305,22 +1304,22 @@
         <v>2020</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="7">
+        <v>12</v>
+      </c>
+      <c r="D57" s="8">
+        <v>187.31560000000002</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="7">
         <v>186.65539999999999</v>
-      </c>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="15">
-        <v>2020</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="8">
-        <v>185.52879999999999</v>
       </c>
       <c r="F58" s="4"/>
     </row>
@@ -1329,46 +1328,46 @@
         <v>2020</v>
       </c>
       <c r="C59" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="8">
+        <v>185.52879999999999</v>
+      </c>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="7">
+        <v>184.24960000000002</v>
+      </c>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="15">
+        <v>2020</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="7">
-        <v>184.24960000000002</v>
-      </c>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="16">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="16" t="s">
+      <c r="D61" s="10">
+        <v>182.79640000000001</v>
+      </c>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="13">
+        <v>2019</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="10">
-        <v>182.79640000000001</v>
-      </c>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="14">
-        <v>2019</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="7">
+      <c r="D62" s="7">
         <v>180.87720000000002</v>
-      </c>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="15">
-        <v>2019</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="8">
-        <v>180.59729999999999</v>
       </c>
       <c r="F62" s="4"/>
     </row>
@@ -1377,22 +1376,22 @@
         <v>2019</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="7">
+        <v>18</v>
+      </c>
+      <c r="D63" s="8">
+        <v>180.59729999999999</v>
+      </c>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="13">
+        <v>2019</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="7">
         <v>180.7492</v>
-      </c>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="15">
-        <v>2019</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="8">
-        <v>180.20829999999998</v>
       </c>
       <c r="F64" s="4"/>
     </row>
@@ -1401,22 +1400,22 @@
         <v>2019</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="7">
+        <v>20</v>
+      </c>
+      <c r="D65" s="8">
+        <v>180.20829999999998</v>
+      </c>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="13">
+        <v>2019</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="7">
         <v>180.37700000000001</v>
-      </c>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="15">
-        <v>2019</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="8">
-        <v>179.00659999999999</v>
       </c>
       <c r="F66" s="4"/>
     </row>
@@ -1425,22 +1424,22 @@
         <v>2019</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="7">
+        <v>10</v>
+      </c>
+      <c r="D67" s="8">
+        <v>179.00659999999999</v>
+      </c>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="13">
+        <v>2019</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="7">
         <v>178.86760000000001</v>
-      </c>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="15">
-        <v>2019</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="8">
-        <v>177.85589999999999</v>
       </c>
       <c r="F68" s="4"/>
     </row>
@@ -1449,22 +1448,22 @@
         <v>2019</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="7">
+        <v>12</v>
+      </c>
+      <c r="D69" s="8">
+        <v>177.85589999999999</v>
+      </c>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="13">
+        <v>2019</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="7">
         <v>176.74250000000001</v>
-      </c>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="15">
-        <v>2019</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="8">
-        <v>176.64860000000002</v>
       </c>
       <c r="F70" s="4"/>
     </row>
@@ -1473,46 +1472,46 @@
         <v>2019</v>
       </c>
       <c r="C71" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="8">
+        <v>176.64860000000002</v>
+      </c>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="13">
+        <v>2019</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="7">
+        <v>175.73410000000001</v>
+      </c>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="15">
+        <v>2019</v>
+      </c>
+      <c r="C73" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="7">
-        <v>175.73410000000001</v>
-      </c>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="16">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="16" t="s">
+      <c r="D73" s="10">
+        <v>175.57229999999998</v>
+      </c>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="10">
-        <v>175.57229999999998</v>
-      </c>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="14">
-        <v>2018</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="7">
+      <c r="D74" s="7">
         <v>174.79249999999999</v>
-      </c>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="15">
-        <v>2018</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="8">
-        <v>173.77529999999999</v>
       </c>
       <c r="F74" s="4"/>
     </row>
@@ -1521,22 +1520,22 @@
         <v>2018</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="7">
+        <v>18</v>
+      </c>
+      <c r="D75" s="8">
+        <v>173.77529999999999</v>
+      </c>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="7">
         <v>173.46220000000002</v>
-      </c>
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="15">
-        <v>2018</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="8">
-        <v>173.56610000000001</v>
       </c>
       <c r="F76" s="4"/>
     </row>
@@ -1545,22 +1544,22 @@
         <v>2018</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="7">
+        <v>20</v>
+      </c>
+      <c r="D77" s="8">
+        <v>173.56610000000001</v>
+      </c>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="7">
         <v>173.6061</v>
-      </c>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="15">
-        <v>2018</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="8">
-        <v>173.2835</v>
       </c>
       <c r="F78" s="4"/>
     </row>
@@ -1569,22 +1568,22 @@
         <v>2018</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="7">
+        <v>10</v>
+      </c>
+      <c r="D79" s="8">
+        <v>173.2835</v>
+      </c>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="7">
         <v>173.2114</v>
-      </c>
-      <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="15">
-        <v>2018</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="8">
-        <v>173.31120000000001</v>
       </c>
       <c r="F80" s="4"/>
     </row>
@@ -1593,22 +1592,22 @@
         <v>2018</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="7">
+        <v>12</v>
+      </c>
+      <c r="D81" s="8">
+        <v>173.31120000000001</v>
+      </c>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="7">
         <v>173.1146</v>
-      </c>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="15">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82" s="8">
-        <v>173.23160000000001</v>
       </c>
       <c r="F82" s="4"/>
     </row>
@@ -1617,35 +1616,35 @@
         <v>2018</v>
       </c>
       <c r="C83" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="8">
+        <v>173.23160000000001</v>
+      </c>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="7">
+        <v>172.89010000000002</v>
+      </c>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="15">
+        <v>2018</v>
+      </c>
+      <c r="C85" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="7">
-        <v>172.89010000000002</v>
-      </c>
-      <c r="F83" s="4"/>
-    </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="16">
-        <v>2018</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="10">
+      <c r="D85" s="10">
         <v>173.20520000000002</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="11"/>
-      <c r="D85" s="8"/>
       <c r="E85" s="3"/>
       <c r="F85" s="4"/>
       <c r="G85" s="3"/>
@@ -1653,47 +1652,59 @@
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="3"/>
+      <c r="B86" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="16"/>
+      <c r="D86" s="8"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+      <c r="F86" s="4"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
-      <c r="J86" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="6"/>
+      <c r="B87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
+      <c r="J87" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="3"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D89" s="5"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="3"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D90" s="5"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D91" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Reservas_internacionales.xlsx
+++ b/Reservas_internacionales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CBE25E-6B41-4F1E-B119-33F9C9200327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC97A116-A93A-4615-8E7B-C5ACB664C3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="23">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -101,7 +101,10 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -115,19 +118,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -135,20 +138,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -217,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -241,9 +244,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -262,8 +262,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -284,7 +284,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat"/>
+        <name val="Geomanist"/>
         <scheme val="major"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -300,6 +300,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -309,13 +316,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -331,7 +331,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D86" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D86" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
   <autoFilter ref="B4:D86" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
     <filterColumn colId="0">
       <filters>
@@ -388,7 +388,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -396,28 +396,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -426,14 +426,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -608,28 +608,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O91"/>
+  <dimension ref="B2:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" customWidth="1"/>
-    <col min="4" max="4" width="20.09765625" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="12" width="18.875" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -647,7 +647,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -665,985 +665,985 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="14">
+    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
         <v>2024</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8">
-        <v>226.7243</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7">
+        <v>226.09610000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>2024</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8">
+        <v>226.7243</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="7">
         <v>224.77789999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14">
-        <v>2024</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8">
-        <v>222.34829999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>2024</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7">
-        <v>219.99689999999998</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="8">
+        <v>222.34829999999999</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="14">
+    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="8">
-        <v>218.72629999999998</v>
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7">
+        <v>219.99689999999998</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>2024</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="8">
+        <v>218.72629999999998</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="12">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="7">
         <v>217.18979999999999</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="14">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="8">
-        <v>217.19379999999998</v>
-      </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>2024</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="8">
+        <v>217.19379999999998</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="7">
         <v>213.72200000000001</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="15">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
         <v>2024</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="9">
         <v>213.3159</v>
       </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="13">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
         <v>2023</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="7">
         <v>212.7619</v>
       </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="14">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="8">
-        <v>206.83920000000001</v>
-      </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <v>2023</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8">
+        <v>206.83920000000001</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D17" s="7">
         <v>204.4032</v>
       </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="14">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="8">
-        <v>203.76760000000002</v>
-      </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>2023</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="8">
+        <v>203.76760000000002</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D19" s="7">
         <v>204.23849999999999</v>
       </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="14">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="8">
-        <v>204.07139999999998</v>
-      </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>2023</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="8">
+        <v>204.07139999999998</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D21" s="7">
         <v>203.20929999999998</v>
       </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="14">
-        <v>2023</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="8">
-        <v>202.66370000000001</v>
-      </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>2023</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8">
+        <v>202.66370000000001</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D23" s="7">
         <v>203.10400000000001</v>
       </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="14">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="8">
-        <v>202.33760000000001</v>
-      </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="13">
         <v>2023</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="8">
+        <v>202.33760000000001</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="7">
         <v>200.17829999999998</v>
       </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="15">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="14">
         <v>2023</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D26" s="9">
         <v>200.99789999999999</v>
       </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="13">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="12">
         <v>2022</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D27" s="7">
         <v>199.0942</v>
       </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14">
-        <v>2022</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="8">
-        <v>198.2405</v>
-      </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>2022</v>
       </c>
       <c r="C28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="8">
+        <v>198.2405</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D29" s="7">
         <v>196.84710000000001</v>
       </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="14">
-        <v>2022</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="8">
-        <v>196.91749999999999</v>
-      </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="13">
         <v>2022</v>
       </c>
       <c r="C30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="8">
+        <v>196.91749999999999</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D31" s="7">
         <v>198.52929999999998</v>
       </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="14">
-        <v>2022</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="8">
-        <v>199.47979999999998</v>
-      </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13">
         <v>2022</v>
       </c>
       <c r="C32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="8">
+        <v>199.47979999999998</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D33" s="7">
         <v>198.53700000000001</v>
       </c>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="14">
-        <v>2022</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="8">
-        <v>199.50379999999998</v>
-      </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>2022</v>
       </c>
       <c r="C34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="8">
+        <v>199.50379999999998</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D35" s="7">
         <v>199.1746</v>
       </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="14">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="8">
-        <v>200.8065</v>
-      </c>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="13">
         <v>2022</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="8">
+        <v>200.8065</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D37" s="7">
         <v>201.6764</v>
       </c>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="15">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="14">
         <v>2022</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D38" s="9">
         <v>201.63770000000002</v>
       </c>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="13">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="12">
         <v>2021</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D39" s="7">
         <v>202.39920000000001</v>
       </c>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="14">
-        <v>2021</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="8">
-        <v>199.50190000000001</v>
-      </c>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="13">
         <v>2021</v>
       </c>
       <c r="C40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="8">
+        <v>199.50190000000001</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D41" s="7">
         <v>198.85040000000001</v>
       </c>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="14">
-        <v>2021</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="8">
-        <v>198.4144</v>
-      </c>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="13">
         <v>2021</v>
       </c>
       <c r="C42" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="8">
+        <v>198.4144</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D43" s="7">
         <v>205.51249999999999</v>
       </c>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="14">
-        <v>2021</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="8">
-        <v>193.42370000000003</v>
-      </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13">
         <v>2021</v>
       </c>
       <c r="C44" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="8">
+        <v>193.42370000000003</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D45" s="7">
         <v>192.8819</v>
       </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="14">
-        <v>2021</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="8">
-        <v>194.09710000000001</v>
-      </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="13">
         <v>2021</v>
       </c>
       <c r="C46" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="8">
+        <v>194.09710000000001</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D47" s="7">
         <v>195.26760000000002</v>
       </c>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="14">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="8">
-        <v>194.77420000000001</v>
-      </c>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>2021</v>
       </c>
       <c r="C48" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="8">
+        <v>194.77420000000001</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D49" s="7">
         <v>195.26949999999999</v>
       </c>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="15">
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="14">
         <v>2021</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C50" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D50" s="9">
         <v>195.9461</v>
       </c>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="13">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="12">
         <v>2020</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D51" s="7">
         <v>195.66720000000001</v>
       </c>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="14">
-        <v>2020</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="8">
-        <v>194.28670000000002</v>
-      </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="13">
         <v>2020</v>
       </c>
       <c r="C52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="8">
+        <v>194.28670000000002</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D53" s="7">
         <v>194.3511</v>
       </c>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="14">
-        <v>2020</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="8">
-        <v>193.95660000000001</v>
-      </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="13">
         <v>2020</v>
       </c>
       <c r="C54" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="8">
+        <v>193.95660000000001</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D55" s="7">
         <v>193.33410000000001</v>
       </c>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="14">
-        <v>2020</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="8">
-        <v>192.60560000000001</v>
-      </c>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="13">
         <v>2020</v>
       </c>
       <c r="C56" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="8">
+        <v>192.60560000000001</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D57" s="7">
         <v>189.61520000000002</v>
       </c>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="14">
-        <v>2020</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="8">
-        <v>187.31560000000002</v>
-      </c>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="13">
         <v>2020</v>
       </c>
       <c r="C58" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="8">
+        <v>187.31560000000002</v>
+      </c>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D59" s="7">
         <v>186.65539999999999</v>
       </c>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="14">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="8">
-        <v>185.52879999999999</v>
-      </c>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="13">
         <v>2020</v>
       </c>
       <c r="C60" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="8">
+        <v>185.52879999999999</v>
+      </c>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D61" s="7">
         <v>184.24960000000002</v>
       </c>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="15">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="14">
         <v>2020</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C62" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D62" s="9">
         <v>182.79640000000001</v>
       </c>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="13">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="12">
         <v>2019</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D63" s="7">
         <v>180.87720000000002</v>
       </c>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="14">
-        <v>2019</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="8">
-        <v>180.59729999999999</v>
-      </c>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="13">
         <v>2019</v>
       </c>
       <c r="C64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="8">
+        <v>180.59729999999999</v>
+      </c>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D65" s="7">
         <v>180.7492</v>
       </c>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="14">
-        <v>2019</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="8">
-        <v>180.20829999999998</v>
-      </c>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="13">
         <v>2019</v>
       </c>
       <c r="C66" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="8">
+        <v>180.20829999999998</v>
+      </c>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D67" s="7">
         <v>180.37700000000001</v>
       </c>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="14">
-        <v>2019</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="8">
-        <v>179.00659999999999</v>
-      </c>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="13">
         <v>2019</v>
       </c>
       <c r="C68" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="8">
+        <v>179.00659999999999</v>
+      </c>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D69" s="7">
         <v>178.86760000000001</v>
       </c>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="14">
-        <v>2019</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="8">
-        <v>177.85589999999999</v>
-      </c>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="13">
         <v>2019</v>
       </c>
       <c r="C70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="8">
+        <v>177.85589999999999</v>
+      </c>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D71" s="7">
         <v>176.74250000000001</v>
       </c>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="14">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="8">
-        <v>176.64860000000002</v>
-      </c>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="13">
         <v>2019</v>
       </c>
       <c r="C72" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="8">
+        <v>176.64860000000002</v>
+      </c>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D73" s="7">
         <v>175.73410000000001</v>
       </c>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="15">
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="14">
         <v>2019</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C74" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D74" s="9">
         <v>175.57229999999998</v>
       </c>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="13">
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="12">
         <v>2018</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D75" s="7">
         <v>174.79249999999999</v>
       </c>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="14">
-        <v>2018</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" s="8">
-        <v>173.77529999999999</v>
-      </c>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="13">
         <v>2018</v>
       </c>
       <c r="C76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="8">
+        <v>173.77529999999999</v>
+      </c>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D77" s="7">
         <v>173.46220000000002</v>
       </c>
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="14">
-        <v>2018</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="8">
-        <v>173.56610000000001</v>
-      </c>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="13">
         <v>2018</v>
       </c>
       <c r="C78" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="8">
+        <v>173.56610000000001</v>
+      </c>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D79" s="7">
         <v>173.6061</v>
       </c>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="14">
-        <v>2018</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="8">
-        <v>173.2835</v>
-      </c>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="13">
         <v>2018</v>
       </c>
       <c r="C80" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="8">
+        <v>173.2835</v>
+      </c>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D81" s="7">
         <v>173.2114</v>
       </c>
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="14">
-        <v>2018</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="8">
-        <v>173.31120000000001</v>
-      </c>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="13">
         <v>2018</v>
       </c>
       <c r="C82" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="8">
+        <v>173.31120000000001</v>
+      </c>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D83" s="7">
         <v>173.1146</v>
       </c>
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="14">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="8">
-        <v>173.23160000000001</v>
-      </c>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="13">
         <v>2018</v>
       </c>
       <c r="C84" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="8">
+        <v>173.23160000000001</v>
+      </c>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C85" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D85" s="7">
         <v>172.89010000000002</v>
-      </c>
-      <c r="F84" s="4"/>
-    </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="15">
-        <v>2018</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="10">
-        <v>173.20520000000002</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="4"/>
@@ -1651,24 +1651,28 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="8"/>
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="14">
+        <v>2018</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="9">
+        <v>173.20520000000002</v>
+      </c>
       <c r="E86" s="3"/>
       <c r="F86" s="4"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="8"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -1678,33 +1682,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="6"/>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="3"/>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="6"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D90" s="5"/>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="3"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D92" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Reservas_internacionales.xlsx
+++ b/Reservas_internacionales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC97A116-A93A-4615-8E7B-C5ACB664C3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E8639E-8B2F-4FE5-A6D1-FE32AF8955B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="23">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -104,7 +104,7 @@
     <t>Oct</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -123,23 +123,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -149,11 +136,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -218,59 +220,59 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <font>
         <b val="0"/>
@@ -284,17 +286,41 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Geomanist"/>
-        <scheme val="major"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -320,6 +346,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -331,9 +370,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Geomanist"/>
+        <name val="Noto Sans"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -367,11 +407,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D86" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B4:D86" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D87" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B4:D87" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
@@ -608,28 +647,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O92"/>
+  <dimension ref="B2:O93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="12" width="18.875" customWidth="1"/>
-    <col min="13" max="13" width="8.375" customWidth="1"/>
-    <col min="14" max="14" width="8.625" customWidth="1"/>
-    <col min="15" max="15" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="3" customWidth="1"/>
+    <col min="8" max="12" width="18.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -647,7 +687,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -665,1060 +705,1070 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
+    <row r="5" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="8">
         <v>2024</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9">
+        <v>228.3922</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="11">
         <v>226.09610000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
+    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="8">
         <v>2024</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="9">
         <v>226.7243</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+    <row r="8" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
         <v>2024</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="11">
         <v>224.77789999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
+    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="8">
         <v>2024</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="9">
         <v>222.34829999999999</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
+      <c r="E9" s="2"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="11">
         <v>219.99689999999998</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+      <c r="E10" s="2"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="8">
         <v>2024</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="9">
         <v>218.72629999999998</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="11">
         <v>217.18979999999999</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D13" s="9">
         <v>217.19379999999998</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="11">
         <v>213.72200000000001</v>
       </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="13">
         <v>213.3159</v>
       </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="10">
         <v>2023</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="11">
         <v>212.7619</v>
       </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="8">
         <v>2023</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="9">
         <v>206.83920000000001</v>
       </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10">
         <v>2023</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D18" s="11">
         <v>204.4032</v>
       </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="8">
         <v>2023</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="9">
         <v>203.76760000000002</v>
       </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="12">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
         <v>2023</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D20" s="11">
         <v>204.23849999999999</v>
       </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="8">
         <v>2023</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D21" s="9">
         <v>204.07139999999998</v>
       </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D22" s="11">
         <v>203.20929999999998</v>
       </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="8">
         <v>2023</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="9">
         <v>202.66370000000001</v>
       </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="12">
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D24" s="11">
         <v>203.10400000000001</v>
       </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="13">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D25" s="9">
         <v>202.33760000000001</v>
       </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="12">
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D26" s="11">
         <v>200.17829999999998</v>
       </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="14">
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="13">
         <v>200.99789999999999</v>
       </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="10">
         <v>2022</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D28" s="11">
         <v>199.0942</v>
       </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="13">
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="8">
         <v>2022</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="9">
         <v>198.2405</v>
       </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="10">
         <v>2022</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D30" s="11">
         <v>196.84710000000001</v>
       </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="13">
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="8">
         <v>2022</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="9">
         <v>196.91749999999999</v>
       </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="12">
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10">
         <v>2022</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D32" s="11">
         <v>198.52929999999998</v>
       </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="13">
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="8">
         <v>2022</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D33" s="9">
         <v>199.47979999999998</v>
       </c>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="12">
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D34" s="11">
         <v>198.53700000000001</v>
       </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="13">
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="8">
         <v>2022</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="9">
         <v>199.50379999999998</v>
       </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D36" s="11">
         <v>199.1746</v>
       </c>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="13">
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D37" s="9">
         <v>200.8065</v>
       </c>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="12">
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D38" s="11">
         <v>201.6764</v>
       </c>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="14">
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C39" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="13">
         <v>201.63770000000002</v>
       </c>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="10">
         <v>2021</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D40" s="11">
         <v>202.39920000000001</v>
       </c>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="13">
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="8">
         <v>2021</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="9">
         <v>199.50190000000001</v>
       </c>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="12">
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="10">
         <v>2021</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D42" s="11">
         <v>198.85040000000001</v>
       </c>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="13">
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="8">
         <v>2021</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="9">
         <v>198.4144</v>
       </c>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="12">
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="10">
         <v>2021</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D44" s="11">
         <v>205.51249999999999</v>
       </c>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="13">
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="8">
         <v>2021</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D45" s="9">
         <v>193.42370000000003</v>
       </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="12">
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D46" s="11">
         <v>192.8819</v>
       </c>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="13">
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="8">
         <v>2021</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D47" s="9">
         <v>194.09710000000001</v>
       </c>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="12">
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D48" s="11">
         <v>195.26760000000002</v>
       </c>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="13">
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D49" s="9">
         <v>194.77420000000001</v>
       </c>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D50" s="11">
         <v>195.26949999999999</v>
       </c>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="14">
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="13">
         <v>195.9461</v>
       </c>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="12">
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="10">
         <v>2020</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D52" s="11">
         <v>195.66720000000001</v>
       </c>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="13">
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="8">
         <v>2020</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D53" s="9">
         <v>194.28670000000002</v>
       </c>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="12">
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="10">
         <v>2020</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D54" s="11">
         <v>194.3511</v>
       </c>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="13">
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="8">
         <v>2020</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D55" s="9">
         <v>193.95660000000001</v>
       </c>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="12">
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="10">
         <v>2020</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D56" s="11">
         <v>193.33410000000001</v>
       </c>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="13">
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="8">
         <v>2020</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D57" s="9">
         <v>192.60560000000001</v>
       </c>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="12">
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D58" s="11">
         <v>189.61520000000002</v>
       </c>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="13">
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="8">
         <v>2020</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D59" s="9">
         <v>187.31560000000002</v>
       </c>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="12">
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D60" s="11">
         <v>186.65539999999999</v>
       </c>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="13">
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D61" s="9">
         <v>185.52879999999999</v>
       </c>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="12">
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D62" s="11">
         <v>184.24960000000002</v>
       </c>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="14">
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="13">
         <v>182.79640000000001</v>
       </c>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="12">
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="10">
         <v>2019</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D64" s="11">
         <v>180.87720000000002</v>
       </c>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="13">
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="8">
         <v>2019</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D65" s="9">
         <v>180.59729999999999</v>
       </c>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="12">
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="10">
         <v>2019</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D66" s="11">
         <v>180.7492</v>
       </c>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="13">
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="8">
         <v>2019</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D67" s="9">
         <v>180.20829999999998</v>
       </c>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="12">
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="10">
         <v>2019</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D68" s="11">
         <v>180.37700000000001</v>
       </c>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="13">
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="8">
         <v>2019</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D69" s="9">
         <v>179.00659999999999</v>
       </c>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="12">
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D70" s="11">
         <v>178.86760000000001</v>
       </c>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="13">
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="8">
         <v>2019</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D71" s="9">
         <v>177.85589999999999</v>
       </c>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="12">
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D72" s="11">
         <v>176.74250000000001</v>
       </c>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="13">
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D73" s="9">
         <v>176.64860000000002</v>
       </c>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="12">
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D74" s="11">
         <v>175.73410000000001</v>
       </c>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="14">
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C75" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="13">
         <v>175.57229999999998</v>
       </c>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="12">
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="10">
         <v>2018</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D76" s="11">
         <v>174.79249999999999</v>
       </c>
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="13">
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="8">
         <v>2018</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D77" s="9">
         <v>173.77529999999999</v>
       </c>
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="12">
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="10">
         <v>2018</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D78" s="11">
         <v>173.46220000000002</v>
       </c>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="13">
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="8">
         <v>2018</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D79" s="9">
         <v>173.56610000000001</v>
       </c>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="12">
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D80" s="11">
         <v>173.6061</v>
       </c>
-      <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="13">
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="8">
         <v>2018</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D81" s="9">
         <v>173.2835</v>
       </c>
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="12">
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D82" s="11">
         <v>173.2114</v>
       </c>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="13">
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="8">
         <v>2018</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D83" s="9">
         <v>173.31120000000001</v>
       </c>
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="12">
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D84" s="11">
         <v>173.1146</v>
       </c>
-      <c r="F83" s="4"/>
-    </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="13">
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D85" s="9">
         <v>173.23160000000001</v>
       </c>
-      <c r="F84" s="4"/>
-    </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="12">
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D86" s="11">
         <v>172.89010000000002</v>
       </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="14">
+      <c r="E86" s="14"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+    </row>
+    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="12">
         <v>2018</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C87" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="13">
         <v>173.20520000000002</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
+      <c r="E87" s="14"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B88" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" t="s">
+      <c r="C88" s="8"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="6" t="s">
+      <c r="C89" s="2"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B90" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="3"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D91" s="5"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D92" s="5"/>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="14"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="D92" s="15"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="D93" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Reservas_internacionales.xlsx
+++ b/Reservas_internacionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E8639E-8B2F-4FE5-A6D1-FE32AF8955B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87187705-FED2-4C5F-AD8C-3C1455B18189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="23">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -104,15 +104,16 @@
     <t>Oct</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -178,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -217,12 +218,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -266,6 +289,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -407,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D87" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B4:D87" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D88" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B4:D88" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -647,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O93"/>
+  <dimension ref="B2:O94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -660,7 +692,7 @@
     <col min="3" max="3" width="6.25" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="3" customWidth="1"/>
     <col min="8" max="12" width="18.875" style="3" customWidth="1"/>
     <col min="13" max="13" width="8.375" style="3" customWidth="1"/>
@@ -717,1000 +749,1000 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>2024</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="11">
+        <v>228.9896</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="9">
         <v>228.3922</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="10">
         <v>2024</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <v>226.09610000000001</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="8">
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="8">
         <v>2024</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="9">
         <v>226.7243</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="10">
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="10">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <v>224.77789999999999</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="8">
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="8">
         <v>2024</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="9">
         <v>222.34829999999999</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
+      <c r="E10" s="2"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="10">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>219.99689999999998</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="8">
+      <c r="E11" s="2"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="8">
         <v>2024</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="9">
         <v>218.72629999999998</v>
       </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>217.18979999999999</v>
       </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="8">
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>217.19379999999998</v>
       </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>213.72200000000001</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="12">
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <v>213.3159</v>
       </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="10">
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="16">
         <v>2023</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="17">
         <v>212.7619</v>
       </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="8">
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="8">
         <v>2023</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D18" s="9">
         <v>206.83920000000001</v>
       </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="10">
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10">
         <v>2023</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>204.4032</v>
       </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="8">
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="8">
         <v>2023</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="9">
         <v>203.76760000000002</v>
       </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="10">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>204.23849999999999</v>
       </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="8">
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="8">
         <v>2023</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="9">
         <v>204.07139999999998</v>
       </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>203.20929999999998</v>
       </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="8">
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="8">
         <v>2023</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="9">
         <v>202.66370000000001</v>
       </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <v>203.10400000000001</v>
       </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="8">
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="9">
         <v>202.33760000000001</v>
       </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>200.17829999999998</v>
       </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="12">
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <v>200.99789999999999</v>
       </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="10">
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="10">
         <v>2022</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>199.0942</v>
       </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="8">
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="8">
         <v>2022</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="9">
         <v>198.2405</v>
       </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="10">
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="10">
         <v>2022</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>196.84710000000001</v>
       </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="8">
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="8">
         <v>2022</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D32" s="9">
         <v>196.91749999999999</v>
       </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10">
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="10">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>198.52929999999998</v>
       </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="8">
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="8">
         <v>2022</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="9">
         <v>199.47979999999998</v>
       </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>198.53700000000001</v>
       </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="8">
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="8">
         <v>2022</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D36" s="9">
         <v>199.50379999999998</v>
       </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10">
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>199.1746</v>
       </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="8">
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="9">
         <v>200.8065</v>
       </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10">
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>201.6764</v>
       </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="12">
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <v>201.63770000000002</v>
       </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="10">
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="10">
         <v>2021</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>202.39920000000001</v>
       </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="8">
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="8">
         <v>2021</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D42" s="9">
         <v>199.50190000000001</v>
       </c>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="10">
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="10">
         <v>2021</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <v>198.85040000000001</v>
       </c>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="8">
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="8">
         <v>2021</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="9">
         <v>198.4144</v>
       </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10">
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="10">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <v>205.51249999999999</v>
       </c>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="8">
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="8">
         <v>2021</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="9">
         <v>193.42370000000003</v>
       </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="10">
+      <c r="F46" s="18"/>
+    </row>
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>192.8819</v>
       </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="8">
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="8">
         <v>2021</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D48" s="9">
         <v>194.09710000000001</v>
       </c>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="10">
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <v>195.26760000000002</v>
       </c>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="8">
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="9">
         <v>194.77420000000001</v>
       </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="10">
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>195.26949999999999</v>
       </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="12">
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="13">
         <v>195.9461</v>
       </c>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="10">
+      <c r="F52" s="18"/>
+    </row>
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="10">
         <v>2020</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <v>195.66720000000001</v>
       </c>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="8">
+      <c r="F53" s="18"/>
+    </row>
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="8">
         <v>2020</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D54" s="9">
         <v>194.28670000000002</v>
       </c>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="10">
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="10">
         <v>2020</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>194.3511</v>
       </c>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="8">
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="8">
         <v>2020</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D56" s="9">
         <v>193.95660000000001</v>
       </c>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="10">
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="10">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>193.33410000000001</v>
       </c>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="8">
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="8">
         <v>2020</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="9">
         <v>192.60560000000001</v>
       </c>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="10">
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>189.61520000000002</v>
       </c>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="8">
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="8">
         <v>2020</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D60" s="9">
         <v>187.31560000000002</v>
       </c>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="10">
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>186.65539999999999</v>
       </c>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="8">
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="9">
         <v>185.52879999999999</v>
       </c>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="10">
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>184.24960000000002</v>
       </c>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="12">
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="13">
         <v>182.79640000000001</v>
       </c>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="10">
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="10">
         <v>2019</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>180.87720000000002</v>
       </c>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="8">
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="8">
         <v>2019</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D66" s="9">
         <v>180.59729999999999</v>
       </c>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="10">
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="10">
         <v>2019</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>180.7492</v>
       </c>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="8">
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="8">
         <v>2019</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D68" s="9">
         <v>180.20829999999998</v>
       </c>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="10">
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="10">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>180.37700000000001</v>
       </c>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="8">
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="8">
         <v>2019</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="9">
         <v>179.00659999999999</v>
       </c>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="10">
+      <c r="F70" s="18"/>
+    </row>
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>178.86760000000001</v>
       </c>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="8">
+      <c r="F71" s="18"/>
+    </row>
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="8">
         <v>2019</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D72" s="9">
         <v>177.85589999999999</v>
       </c>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="10">
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>176.74250000000001</v>
       </c>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="8">
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D74" s="9">
         <v>176.64860000000002</v>
       </c>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="10">
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>175.73410000000001</v>
       </c>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="12">
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="13">
         <v>175.57229999999998</v>
       </c>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="10">
+      <c r="F76" s="18"/>
+    </row>
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="10">
         <v>2018</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>174.79249999999999</v>
       </c>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="8">
+      <c r="F77" s="18"/>
+    </row>
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="8">
         <v>2018</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D78" s="9">
         <v>173.77529999999999</v>
       </c>
-      <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="10">
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="10">
         <v>2018</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>173.46220000000002</v>
       </c>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="8">
+      <c r="F79" s="18"/>
+    </row>
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="8">
         <v>2018</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D80" s="9">
         <v>173.56610000000001</v>
       </c>
-      <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="10">
+      <c r="F80" s="18"/>
+    </row>
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>173.6061</v>
       </c>
-      <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="8">
+      <c r="F81" s="18"/>
+    </row>
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="8">
         <v>2018</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D82" s="9">
         <v>173.2835</v>
       </c>
-      <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="10">
+      <c r="F82" s="18"/>
+    </row>
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>173.2114</v>
       </c>
-      <c r="F82" s="7"/>
-    </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="8">
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="8">
         <v>2018</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D84" s="9">
         <v>173.31120000000001</v>
       </c>
-      <c r="F83" s="7"/>
-    </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10">
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>173.1146</v>
       </c>
-      <c r="F84" s="7"/>
-    </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="8">
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D86" s="9">
         <v>173.23160000000001</v>
       </c>
-      <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="10">
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>172.89010000000002</v>
-      </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-    </row>
-    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="13">
-        <v>173.20520000000002</v>
       </c>
       <c r="E87" s="14"/>
       <c r="F87" s="7"/>
@@ -1718,54 +1750,70 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B88" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="9"/>
+    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="13">
+        <v>173.20520000000002</v>
+      </c>
       <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
+      <c r="F88" s="7"/>
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
-      <c r="J88" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B89" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="9"/>
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
+      <c r="J89" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B91" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B91" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="14"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="D92" s="15"/>
+      <c r="B92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="14"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D93" s="15"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="D94" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Reservas_internacionales.xlsx
+++ b/Reservas_internacionales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87187705-FED2-4C5F-AD8C-3C1455B18189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105845BE-3422-4CAA-8EE8-3F7C4C7317C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_4" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="23">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -104,7 +104,7 @@
     <t>Oct</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -113,7 +113,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -179,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -240,12 +240,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -296,8 +307,14 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -358,13 +375,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -388,6 +398,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -439,8 +456,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D88" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B4:D88" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D89" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
+  <autoFilter ref="B4:D89" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -679,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O94"/>
+  <dimension ref="B2:O95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -749,1016 +766,1014 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="10">
+      <c r="B5" s="19">
+        <v>2025</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="20">
+        <v>230.76400000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10">
         <v>2024</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D6" s="11">
         <v>228.9896</v>
       </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="8">
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="8">
         <v>2024</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="9">
         <v>228.3922</v>
       </c>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="10">
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
         <v>2024</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11">
         <v>226.09610000000001</v>
       </c>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="8">
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="8">
         <v>2024</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <v>226.7243</v>
       </c>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="10">
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>224.77789999999999</v>
       </c>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="8">
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="8">
         <v>2024</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="9">
         <v>222.34829999999999</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="11">
-        <v>219.99689999999998</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="8">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="11">
+        <v>219.99689999999998</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <v>218.72629999999998</v>
       </c>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="10">
+      <c r="F13" s="18"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>217.18979999999999</v>
       </c>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="8">
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>217.19379999999998</v>
       </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="10">
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>213.72200000000001</v>
       </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="12">
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <v>213.3159</v>
       </c>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="16">
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="16">
         <v>2023</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D18" s="17">
         <v>212.7619</v>
       </c>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="8">
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="8">
         <v>2023</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="9">
         <v>206.83920000000001</v>
       </c>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="10">
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
         <v>2023</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>204.4032</v>
       </c>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="8">
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="8">
         <v>2023</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>203.76760000000002</v>
       </c>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="10">
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>204.23849999999999</v>
       </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="8">
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="8">
         <v>2023</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="9">
         <v>204.07139999999998</v>
       </c>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="10">
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <v>203.20929999999998</v>
       </c>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="8">
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="9">
         <v>202.66370000000001</v>
       </c>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="10">
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>203.10400000000001</v>
       </c>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="8">
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="9">
         <v>202.33760000000001</v>
       </c>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="10">
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>200.17829999999998</v>
       </c>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="12">
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <v>200.99789999999999</v>
       </c>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="10">
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="10">
         <v>2022</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <v>199.0942</v>
       </c>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="8">
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="8">
         <v>2022</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="9">
         <v>198.2405</v>
       </c>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="10">
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10">
         <v>2022</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <v>196.84710000000001</v>
       </c>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="8">
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="8">
         <v>2022</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="9">
         <v>196.91749999999999</v>
       </c>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="10">
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>198.52929999999998</v>
       </c>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="8">
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="8">
         <v>2022</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="9">
         <v>199.47979999999998</v>
       </c>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="10">
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>198.53700000000001</v>
       </c>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="8">
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="9">
         <v>199.50379999999998</v>
       </c>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="10">
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>199.1746</v>
       </c>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="8">
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="9">
         <v>200.8065</v>
       </c>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="10">
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>201.6764</v>
       </c>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="12">
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D41" s="13">
         <v>201.63770000000002</v>
       </c>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="10">
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="10">
         <v>2021</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <v>202.39920000000001</v>
       </c>
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="8">
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="8">
         <v>2021</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="9">
         <v>199.50190000000001</v>
       </c>
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="10">
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="10">
         <v>2021</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <v>198.85040000000001</v>
       </c>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="8">
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="8">
         <v>2021</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="9">
         <v>198.4144</v>
       </c>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="10">
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>205.51249999999999</v>
       </c>
-      <c r="F45" s="18"/>
-    </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="8">
+      <c r="F46" s="18"/>
+    </row>
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="8">
         <v>2021</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="9">
         <v>193.42370000000003</v>
       </c>
-      <c r="F46" s="18"/>
-    </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="10">
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <v>192.8819</v>
       </c>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="8">
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="9">
         <v>194.09710000000001</v>
       </c>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="10">
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>195.26760000000002</v>
       </c>
-      <c r="F49" s="18"/>
-    </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="8">
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="9">
         <v>194.77420000000001</v>
       </c>
-      <c r="F50" s="18"/>
-    </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="10">
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>195.26949999999999</v>
       </c>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="12">
+      <c r="F52" s="18"/>
+    </row>
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <v>195.9461</v>
       </c>
-      <c r="F52" s="18"/>
-    </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="10">
+      <c r="F53" s="18"/>
+    </row>
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="10">
         <v>2020</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <v>195.66720000000001</v>
       </c>
-      <c r="F53" s="18"/>
-    </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="8">
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="8">
         <v>2020</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="9">
         <v>194.28670000000002</v>
       </c>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="10">
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="10">
         <v>2020</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <v>194.3511</v>
       </c>
-      <c r="F55" s="18"/>
-    </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="8">
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="8">
         <v>2020</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="9">
         <v>193.95660000000001</v>
       </c>
-      <c r="F56" s="18"/>
-    </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="10">
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>193.33410000000001</v>
       </c>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="8">
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="8">
         <v>2020</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="9">
         <v>192.60560000000001</v>
       </c>
-      <c r="F58" s="18"/>
-    </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="10">
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <v>189.61520000000002</v>
       </c>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="8">
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="9">
         <v>187.31560000000002</v>
       </c>
-      <c r="F60" s="18"/>
-    </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="10">
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>186.65539999999999</v>
       </c>
-      <c r="F61" s="18"/>
-    </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="8">
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="9">
         <v>185.52879999999999</v>
       </c>
-      <c r="F62" s="18"/>
-    </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="10">
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>184.24960000000002</v>
       </c>
-      <c r="F63" s="18"/>
-    </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="12">
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D65" s="13">
         <v>182.79640000000001</v>
       </c>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="10">
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="10">
         <v>2019</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <v>180.87720000000002</v>
       </c>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="8">
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="8">
         <v>2019</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="9">
         <v>180.59729999999999</v>
       </c>
-      <c r="F66" s="18"/>
-    </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="10">
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="10">
         <v>2019</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <v>180.7492</v>
       </c>
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="8">
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="8">
         <v>2019</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="9">
         <v>180.20829999999998</v>
       </c>
-      <c r="F68" s="18"/>
-    </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="10">
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>180.37700000000001</v>
       </c>
-      <c r="F69" s="18"/>
-    </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="8">
+      <c r="F70" s="18"/>
+    </row>
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="8">
         <v>2019</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="9">
         <v>179.00659999999999</v>
       </c>
-      <c r="F70" s="18"/>
-    </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="10">
+      <c r="F71" s="18"/>
+    </row>
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <v>178.86760000000001</v>
       </c>
-      <c r="F71" s="18"/>
-    </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="8">
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="9">
         <v>177.85589999999999</v>
       </c>
-      <c r="F72" s="18"/>
-    </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="10">
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>176.74250000000001</v>
       </c>
-      <c r="F73" s="18"/>
-    </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="8">
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <v>176.64860000000002</v>
       </c>
-      <c r="F74" s="18"/>
-    </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="10">
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>175.73410000000001</v>
       </c>
-      <c r="F75" s="18"/>
-    </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="12">
+      <c r="F76" s="18"/>
+    </row>
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <v>175.57229999999998</v>
       </c>
-      <c r="F76" s="18"/>
-    </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="10">
+      <c r="F77" s="18"/>
+    </row>
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="10">
         <v>2018</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>174.79249999999999</v>
       </c>
-      <c r="F77" s="18"/>
-    </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="8">
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="8">
         <v>2018</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="9">
         <v>173.77529999999999</v>
       </c>
-      <c r="F78" s="18"/>
-    </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="10">
+      <c r="F79" s="18"/>
+    </row>
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <v>173.46220000000002</v>
       </c>
-      <c r="F79" s="18"/>
-    </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="8">
+      <c r="F80" s="18"/>
+    </row>
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="8">
         <v>2018</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="9">
         <v>173.56610000000001</v>
       </c>
-      <c r="F80" s="18"/>
-    </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="10">
+      <c r="F81" s="18"/>
+    </row>
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>173.6061</v>
       </c>
-      <c r="F81" s="18"/>
-    </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="8">
+      <c r="F82" s="18"/>
+    </row>
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="8">
         <v>2018</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="9">
         <v>173.2835</v>
       </c>
-      <c r="F82" s="18"/>
-    </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="10">
+      <c r="F83" s="18"/>
+    </row>
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>173.2114</v>
       </c>
-      <c r="F83" s="7"/>
-    </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="8">
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="9">
         <v>173.31120000000001</v>
       </c>
-      <c r="F84" s="7"/>
-    </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="10">
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>173.1146</v>
       </c>
-      <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="8">
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="9">
         <v>173.23160000000001</v>
       </c>
-      <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="10">
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <v>172.89010000000002</v>
-      </c>
-      <c r="E87" s="14"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-    </row>
-    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="13">
-        <v>173.20520000000002</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="7"/>
@@ -1766,54 +1781,70 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B89" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="9"/>
+    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="13">
+        <v>173.20520000000002</v>
+      </c>
       <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
+      <c r="F89" s="7"/>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
-      <c r="J89" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="9"/>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
+      <c r="J90" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B92" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B92" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="14"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="D93" s="15"/>
+      <c r="B93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="14"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D94" s="15"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="D95" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Reservas_internacionales.xlsx
+++ b/Reservas_internacionales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105845BE-3422-4CAA-8EE8-3F7C4C7317C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82141D7-1A6B-425B-91EA-BDB8AC3C636A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_4" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="23">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="22">
   <si>
     <t>Reserva Internacional</t>
   </si>
@@ -104,7 +101,7 @@
     <t>Oct</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -115,7 +112,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -240,23 +237,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -309,12 +295,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -375,6 +355,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -398,13 +385,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -456,8 +436,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D89" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
-  <autoFilter ref="B4:D89" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D90" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B4:D90" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -696,13 +676,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O95"/>
+  <dimension ref="B2:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="3" customWidth="1"/>
@@ -710,17 +690,16 @@
     <col min="4" max="4" width="20.375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="3" customWidth="1"/>
-    <col min="8" max="12" width="18.875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11" style="3"/>
+    <col min="7" max="11" width="18.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:14" ht="18" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -734,11 +713,10 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -752,1069 +730,1059 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="2:14" s="7" customFormat="1">
       <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" s="7" customFormat="1">
+      <c r="B5" s="10">
+        <v>2025</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11">
+        <v>234.3468</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" s="7" customFormat="1">
+      <c r="B6" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="13">
+        <v>230.76400000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="7" customFormat="1">
+      <c r="B7" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11">
+        <v>228.9896</v>
+      </c>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:14" s="7" customFormat="1">
+      <c r="B8" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9">
+        <v>228.3922</v>
+      </c>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="2:14" s="7" customFormat="1">
+      <c r="B9" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11">
+        <v>226.09610000000001</v>
+      </c>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="2:14" s="7" customFormat="1">
+      <c r="B10" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="9">
+        <v>226.7243</v>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="2:14" s="7" customFormat="1">
+      <c r="B11" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="19">
-        <v>2025</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="20">
-        <v>230.76400000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
+      <c r="D11" s="11">
+        <v>224.77789999999999</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="2:14" ht="18" customHeight="1">
+      <c r="B12" s="8">
         <v>2024</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="11">
-        <v>228.9896</v>
-      </c>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9">
-        <v>228.3922</v>
-      </c>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="11">
-        <v>226.09610000000001</v>
-      </c>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="9">
-        <v>226.7243</v>
-      </c>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="11">
-        <v>224.77789999999999</v>
-      </c>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="D12" s="9">
         <v>222.34829999999999</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="11">
-        <v>219.99689999999998</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="8">
+    </row>
+    <row r="13" spans="2:14" ht="18" customHeight="1">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="11">
+        <v>219.99689999999998</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9">
+        <v>218.72629999999998</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="9">
-        <v>218.72629999999998</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+      <c r="D15" s="11">
+        <v>217.18979999999999</v>
+      </c>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="11">
-        <v>217.18979999999999</v>
-      </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="8">
+      <c r="D16" s="9">
+        <v>217.19379999999998</v>
+      </c>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="9">
-        <v>217.19379999999998</v>
-      </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="10">
+      <c r="D17" s="11">
+        <v>213.72200000000001</v>
+      </c>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="11">
-        <v>213.72200000000001</v>
-      </c>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="12">
-        <v>2024</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="D18" s="13">
+        <v>213.3159</v>
+      </c>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="2:6" hidden="1">
+      <c r="B19" s="16">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="13">
-        <v>213.3159</v>
-      </c>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="16">
+      <c r="D19" s="17">
+        <v>212.7619</v>
+      </c>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="2:6" hidden="1">
+      <c r="B20" s="8">
         <v>2023</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="17">
-        <v>212.7619</v>
-      </c>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="8">
+      <c r="D20" s="9">
+        <v>206.83920000000001</v>
+      </c>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="2:6" hidden="1">
+      <c r="B21" s="10">
         <v>2023</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="9">
-        <v>206.83920000000001</v>
-      </c>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+      <c r="D21" s="11">
+        <v>204.4032</v>
+      </c>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="2:6" hidden="1">
+      <c r="B22" s="8">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="11">
-        <v>204.4032</v>
-      </c>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="8">
+      <c r="D22" s="9">
+        <v>203.76760000000002</v>
+      </c>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="2:6" hidden="1">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="9">
-        <v>203.76760000000002</v>
-      </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+      <c r="C23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="11">
+        <v>204.23849999999999</v>
+      </c>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="2:6" hidden="1">
+      <c r="B24" s="8">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="11">
-        <v>204.23849999999999</v>
-      </c>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="8">
+      <c r="D24" s="9">
+        <v>204.07139999999998</v>
+      </c>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="2:6" hidden="1">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C25" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="9">
-        <v>204.07139999999998</v>
-      </c>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
+      <c r="D25" s="11">
+        <v>203.20929999999998</v>
+      </c>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="2:6" hidden="1">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="11">
-        <v>203.20929999999998</v>
-      </c>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="8">
+      <c r="D26" s="9">
+        <v>202.66370000000001</v>
+      </c>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="2:6" hidden="1">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="9">
-        <v>202.66370000000001</v>
-      </c>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+      <c r="D27" s="11">
+        <v>203.10400000000001</v>
+      </c>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="2:6" hidden="1">
+      <c r="B28" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="11">
-        <v>203.10400000000001</v>
-      </c>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="8">
+      <c r="D28" s="9">
+        <v>202.33760000000001</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="2:6" hidden="1">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="9">
-        <v>202.33760000000001</v>
-      </c>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="10">
+      <c r="D29" s="11">
+        <v>200.17829999999998</v>
+      </c>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="2:6" hidden="1">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C30" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="11">
-        <v>200.17829999999998</v>
-      </c>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="12">
-        <v>2023</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="D30" s="13">
+        <v>200.99789999999999</v>
+      </c>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="2:6" hidden="1">
+      <c r="B31" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="13">
-        <v>200.99789999999999</v>
-      </c>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="10">
+      <c r="D31" s="11">
+        <v>199.0942</v>
+      </c>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="2:6" hidden="1">
+      <c r="B32" s="8">
         <v>2022</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="11">
-        <v>199.0942</v>
-      </c>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="8">
+      <c r="D32" s="9">
+        <v>198.2405</v>
+      </c>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="10">
         <v>2022</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="9">
-        <v>198.2405</v>
-      </c>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10">
+      <c r="D33" s="11">
+        <v>196.84710000000001</v>
+      </c>
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="8">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="11">
-        <v>196.84710000000001</v>
-      </c>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="8">
+      <c r="D34" s="9">
+        <v>196.91749999999999</v>
+      </c>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="9">
-        <v>196.91749999999999</v>
-      </c>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
+      <c r="C35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="11">
+        <v>198.52929999999998</v>
+      </c>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="8">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="11">
-        <v>198.52929999999998</v>
-      </c>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="8">
+      <c r="D36" s="9">
+        <v>199.47979999999998</v>
+      </c>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C37" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="9">
-        <v>199.47979999999998</v>
-      </c>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10">
+      <c r="D37" s="11">
+        <v>198.53700000000001</v>
+      </c>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="11">
-        <v>198.53700000000001</v>
-      </c>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="8">
+      <c r="D38" s="9">
+        <v>199.50379999999998</v>
+      </c>
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C39" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="9">
-        <v>199.50379999999998</v>
-      </c>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10">
+      <c r="D39" s="11">
+        <v>199.1746</v>
+      </c>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="11">
-        <v>199.1746</v>
-      </c>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="8">
+      <c r="D40" s="9">
+        <v>200.8065</v>
+      </c>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C41" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="9">
-        <v>200.8065</v>
-      </c>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="10">
+      <c r="D41" s="11">
+        <v>201.6764</v>
+      </c>
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C42" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="11">
-        <v>201.6764</v>
-      </c>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="12">
-        <v>2022</v>
-      </c>
-      <c r="C41" s="12" t="s">
+      <c r="D42" s="13">
+        <v>201.63770000000002</v>
+      </c>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="13">
-        <v>201.63770000000002</v>
-      </c>
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="10">
+      <c r="D43" s="11">
+        <v>202.39920000000001</v>
+      </c>
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="2:6" ht="18" hidden="1" customHeight="1">
+      <c r="B44" s="8">
         <v>2021</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="11">
-        <v>202.39920000000001</v>
-      </c>
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="8">
+      <c r="D44" s="9">
+        <v>199.50190000000001</v>
+      </c>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="10">
         <v>2021</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C45" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="9">
-        <v>199.50190000000001</v>
-      </c>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10">
+      <c r="D45" s="11">
+        <v>198.85040000000001</v>
+      </c>
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="8">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="11">
-        <v>198.85040000000001</v>
-      </c>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="8">
+      <c r="D46" s="9">
+        <v>198.4144</v>
+      </c>
+      <c r="F46" s="18"/>
+    </row>
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="9">
-        <v>198.4144</v>
-      </c>
-      <c r="F45" s="18"/>
-    </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="10">
+      <c r="C47" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="11">
+        <v>205.51249999999999</v>
+      </c>
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="8">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="11">
-        <v>205.51249999999999</v>
-      </c>
-      <c r="F46" s="18"/>
-    </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="8">
+      <c r="D48" s="9">
+        <v>193.42370000000003</v>
+      </c>
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C49" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="9">
-        <v>193.42370000000003</v>
-      </c>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="10">
+      <c r="D49" s="11">
+        <v>192.8819</v>
+      </c>
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" spans="2:6" hidden="1">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="11">
-        <v>192.8819</v>
-      </c>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="8">
+      <c r="D50" s="9">
+        <v>194.09710000000001</v>
+      </c>
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C51" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="9">
-        <v>194.09710000000001</v>
-      </c>
-      <c r="F49" s="18"/>
-    </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="10">
+      <c r="D51" s="11">
+        <v>195.26760000000002</v>
+      </c>
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="11">
-        <v>195.26760000000002</v>
-      </c>
-      <c r="F50" s="18"/>
-    </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="8">
+      <c r="D52" s="9">
+        <v>194.77420000000001</v>
+      </c>
+      <c r="F52" s="18"/>
+    </row>
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C53" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="9">
-        <v>194.77420000000001</v>
-      </c>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="10">
+      <c r="D53" s="11">
+        <v>195.26949999999999</v>
+      </c>
+      <c r="F53" s="18"/>
+    </row>
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C54" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="11">
-        <v>195.26949999999999</v>
-      </c>
-      <c r="F52" s="18"/>
-    </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="12">
-        <v>2021</v>
-      </c>
-      <c r="C53" s="12" t="s">
+      <c r="D54" s="13">
+        <v>195.9461</v>
+      </c>
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="13">
-        <v>195.9461</v>
-      </c>
-      <c r="F53" s="18"/>
-    </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="10">
+      <c r="D55" s="11">
+        <v>195.66720000000001</v>
+      </c>
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="8">
         <v>2020</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C56" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="11">
-        <v>195.66720000000001</v>
-      </c>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="8">
+      <c r="D56" s="9">
+        <v>194.28670000000002</v>
+      </c>
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="10">
         <v>2020</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="9">
-        <v>194.28670000000002</v>
-      </c>
-      <c r="F55" s="18"/>
-    </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="10">
+      <c r="D57" s="11">
+        <v>194.3511</v>
+      </c>
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="8">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="11">
-        <v>194.3511</v>
-      </c>
-      <c r="F56" s="18"/>
-    </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="8">
+      <c r="D58" s="9">
+        <v>193.95660000000001</v>
+      </c>
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="9">
-        <v>193.95660000000001</v>
-      </c>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="10">
+      <c r="C59" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="11">
+        <v>193.33410000000001</v>
+      </c>
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="8">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C60" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="11">
-        <v>193.33410000000001</v>
-      </c>
-      <c r="F58" s="18"/>
-    </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="8">
+      <c r="D60" s="9">
+        <v>192.60560000000001</v>
+      </c>
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C61" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="9">
-        <v>192.60560000000001</v>
-      </c>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="10">
+      <c r="D61" s="11">
+        <v>189.61520000000002</v>
+      </c>
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="11">
-        <v>189.61520000000002</v>
-      </c>
-      <c r="F60" s="18"/>
-    </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="8">
+      <c r="D62" s="9">
+        <v>187.31560000000002</v>
+      </c>
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C63" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="9">
-        <v>187.31560000000002</v>
-      </c>
-      <c r="F61" s="18"/>
-    </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="10">
+      <c r="D63" s="11">
+        <v>186.65539999999999</v>
+      </c>
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="11">
-        <v>186.65539999999999</v>
-      </c>
-      <c r="F62" s="18"/>
-    </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="8">
+      <c r="D64" s="9">
+        <v>185.52879999999999</v>
+      </c>
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C65" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="9">
-        <v>185.52879999999999</v>
-      </c>
-      <c r="F63" s="18"/>
-    </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="10">
+      <c r="D65" s="11">
+        <v>184.24960000000002</v>
+      </c>
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C66" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="11">
-        <v>184.24960000000002</v>
-      </c>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="12">
-        <v>2020</v>
-      </c>
-      <c r="C65" s="12" t="s">
+      <c r="D66" s="13">
+        <v>182.79640000000001</v>
+      </c>
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="13">
-        <v>182.79640000000001</v>
-      </c>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="10">
+      <c r="D67" s="11">
+        <v>180.87720000000002</v>
+      </c>
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="8">
         <v>2019</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C68" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="11">
-        <v>180.87720000000002</v>
-      </c>
-      <c r="F66" s="18"/>
-    </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="8">
+      <c r="D68" s="9">
+        <v>180.59729999999999</v>
+      </c>
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="10">
         <v>2019</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C69" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="9">
-        <v>180.59729999999999</v>
-      </c>
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="10">
+      <c r="D69" s="11">
+        <v>180.7492</v>
+      </c>
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="8">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C70" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="11">
-        <v>180.7492</v>
-      </c>
-      <c r="F68" s="18"/>
-    </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="8">
+      <c r="D70" s="9">
+        <v>180.20829999999998</v>
+      </c>
+      <c r="F70" s="18"/>
+    </row>
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="9">
-        <v>180.20829999999998</v>
-      </c>
-      <c r="F69" s="18"/>
-    </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="10">
+      <c r="C71" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="11">
+        <v>180.37700000000001</v>
+      </c>
+      <c r="F71" s="18"/>
+    </row>
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="8">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C72" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="11">
-        <v>180.37700000000001</v>
-      </c>
-      <c r="F70" s="18"/>
-    </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="8">
+      <c r="D72" s="9">
+        <v>179.00659999999999</v>
+      </c>
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C73" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="9">
-        <v>179.00659999999999</v>
-      </c>
-      <c r="F71" s="18"/>
-    </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="10">
+      <c r="D73" s="11">
+        <v>178.86760000000001</v>
+      </c>
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C74" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="11">
-        <v>178.86760000000001</v>
-      </c>
-      <c r="F72" s="18"/>
-    </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="8">
+      <c r="D74" s="9">
+        <v>177.85589999999999</v>
+      </c>
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C75" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="9">
-        <v>177.85589999999999</v>
-      </c>
-      <c r="F73" s="18"/>
-    </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="10">
+      <c r="D75" s="11">
+        <v>176.74250000000001</v>
+      </c>
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C76" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="11">
-        <v>176.74250000000001</v>
-      </c>
-      <c r="F74" s="18"/>
-    </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="8">
+      <c r="D76" s="9">
+        <v>176.64860000000002</v>
+      </c>
+      <c r="F76" s="18"/>
+    </row>
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C77" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="9">
-        <v>176.64860000000002</v>
-      </c>
-      <c r="F75" s="18"/>
-    </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="10">
+      <c r="D77" s="11">
+        <v>175.73410000000001</v>
+      </c>
+      <c r="F77" s="18"/>
+    </row>
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C78" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="11">
-        <v>175.73410000000001</v>
-      </c>
-      <c r="F76" s="18"/>
-    </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C77" s="12" t="s">
+      <c r="D78" s="13">
+        <v>175.57229999999998</v>
+      </c>
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="13">
-        <v>175.57229999999998</v>
-      </c>
-      <c r="F77" s="18"/>
-    </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="10">
+      <c r="D79" s="11">
+        <v>174.79249999999999</v>
+      </c>
+      <c r="F79" s="18"/>
+    </row>
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="8">
         <v>2018</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C80" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="11">
-        <v>174.79249999999999</v>
-      </c>
-      <c r="F78" s="18"/>
-    </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="8">
+      <c r="D80" s="9">
+        <v>173.77529999999999</v>
+      </c>
+      <c r="F80" s="18"/>
+    </row>
+    <row r="81" spans="2:8" hidden="1">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C81" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="9">
-        <v>173.77529999999999</v>
-      </c>
-      <c r="F79" s="18"/>
-    </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="10">
+      <c r="D81" s="11">
+        <v>173.46220000000002</v>
+      </c>
+      <c r="F81" s="18"/>
+    </row>
+    <row r="82" spans="2:8" hidden="1">
+      <c r="B82" s="8">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C82" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="11">
-        <v>173.46220000000002</v>
-      </c>
-      <c r="F80" s="18"/>
-    </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="8">
+      <c r="D82" s="9">
+        <v>173.56610000000001</v>
+      </c>
+      <c r="F82" s="18"/>
+    </row>
+    <row r="83" spans="2:8" hidden="1">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81" s="9">
-        <v>173.56610000000001</v>
-      </c>
-      <c r="F81" s="18"/>
-    </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="10">
+      <c r="C83" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="11">
+        <v>173.6061</v>
+      </c>
+      <c r="F83" s="18"/>
+    </row>
+    <row r="84" spans="2:8" hidden="1">
+      <c r="B84" s="8">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C84" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="11">
-        <v>173.6061</v>
-      </c>
-      <c r="F82" s="18"/>
-    </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="8">
+      <c r="D84" s="9">
+        <v>173.2835</v>
+      </c>
+      <c r="F84" s="18"/>
+    </row>
+    <row r="85" spans="2:8" hidden="1">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C85" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="9">
-        <v>173.2835</v>
-      </c>
-      <c r="F83" s="18"/>
-    </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10">
+      <c r="D85" s="11">
+        <v>173.2114</v>
+      </c>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="2:8" hidden="1">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C86" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="11">
-        <v>173.2114</v>
-      </c>
-      <c r="F84" s="7"/>
-    </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="8">
+      <c r="D86" s="9">
+        <v>173.31120000000001</v>
+      </c>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="2:8" hidden="1">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C87" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="9">
-        <v>173.31120000000001</v>
-      </c>
-      <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="10">
+      <c r="D87" s="11">
+        <v>173.1146</v>
+      </c>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="2:8" hidden="1">
+      <c r="B88" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C88" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="11">
-        <v>173.1146</v>
-      </c>
-      <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="8">
+      <c r="D88" s="9">
+        <v>173.23160000000001</v>
+      </c>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="2:8" hidden="1">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C89" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="9">
-        <v>173.23160000000001</v>
-      </c>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="10">
-        <v>2018</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <v>172.89010000000002</v>
-      </c>
-      <c r="E88" s="14"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-    </row>
-    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="13">
-        <v>173.20520000000002</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="7"/>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B90" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="9"/>
+    </row>
+    <row r="90" spans="2:8" hidden="1">
+      <c r="B90" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="13">
+        <v>173.20520000000002</v>
+      </c>
       <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
+      <c r="F90" s="7"/>
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="91" spans="2:8">
       <c r="B91" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="14"/>
@@ -1822,28 +1790,28 @@
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B92" s="3" t="s">
-        <v>6</v>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B93" s="2" t="s">
-        <v>2</v>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="14"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D94" s="15"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:8">
       <c r="D95" s="15"/>
     </row>
   </sheetData>

--- a/Reservas_internacionales.xlsx
+++ b/Reservas_internacionales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82141D7-1A6B-425B-91EA-BDB8AC3C636A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED28524-321D-44A0-BB40-86B6FCE07EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_4" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
   <si>
     <t>Reserva Internacional</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Oct</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -436,8 +436,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D90" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B4:D90" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D91" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B4:D91" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -676,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N95"/>
+  <dimension ref="B2:N96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -743,1076 +743,1087 @@
       </c>
     </row>
     <row r="5" spans="2:14" s="7" customFormat="1">
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>2025</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9">
+        <v>237.29920000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" s="7" customFormat="1">
+      <c r="B6" s="10">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D6" s="11">
         <v>234.3468</v>
       </c>
     </row>
-    <row r="6" spans="2:14" s="7" customFormat="1">
-      <c r="B6" s="12">
+    <row r="7" spans="2:14" s="7" customFormat="1">
+      <c r="B7" s="12">
         <v>2025</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D7" s="13">
         <v>230.76400000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="7" customFormat="1">
-      <c r="B7" s="10">
+    <row r="8" spans="2:14" s="7" customFormat="1">
+      <c r="B8" s="10">
         <v>2024</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11">
         <v>228.9896</v>
       </c>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="2:14" s="7" customFormat="1">
-      <c r="B8" s="8">
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="2:14" s="7" customFormat="1">
+      <c r="B9" s="8">
         <v>2024</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <v>228.3922</v>
       </c>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="2:14" s="7" customFormat="1">
-      <c r="B9" s="10">
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="2:14" s="7" customFormat="1">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>226.09610000000001</v>
       </c>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="2:14" s="7" customFormat="1">
-      <c r="B10" s="8">
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="2:14" s="7" customFormat="1">
+      <c r="B11" s="8">
         <v>2024</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="9">
         <v>226.7243</v>
       </c>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="2:14" s="7" customFormat="1">
-      <c r="B11" s="10">
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="2:14" s="7" customFormat="1">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>224.77789999999999</v>
       </c>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="2:14" ht="18" customHeight="1">
-      <c r="B12" s="8">
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="2:14" ht="18" customHeight="1">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <v>222.34829999999999</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="2:14" ht="18" customHeight="1">
-      <c r="B13" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="11">
-        <v>219.99689999999998</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="8">
+    <row r="14" spans="2:14" ht="18" customHeight="1">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11">
+        <v>219.99689999999998</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>218.72629999999998</v>
       </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="10">
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>217.18979999999999</v>
       </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="8">
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="8">
         <v>2024</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D17" s="9">
         <v>217.19379999999998</v>
       </c>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="10">
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="10">
         <v>2024</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="11">
         <v>213.72200000000001</v>
       </c>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="12">
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="12">
         <v>2024</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="13">
         <v>213.3159</v>
       </c>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="2:6" hidden="1">
-      <c r="B19" s="16">
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="2:6" hidden="1">
+      <c r="B20" s="16">
         <v>2023</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D20" s="17">
         <v>212.7619</v>
       </c>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="2:6" hidden="1">
-      <c r="B20" s="8">
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="2:6" hidden="1">
+      <c r="B21" s="8">
         <v>2023</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>206.83920000000001</v>
       </c>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="2:6" hidden="1">
-      <c r="B21" s="10">
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="2:6" hidden="1">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>204.4032</v>
       </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="2:6" hidden="1">
-      <c r="B22" s="8">
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="2:6" hidden="1">
+      <c r="B23" s="8">
         <v>2023</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="9">
         <v>203.76760000000002</v>
       </c>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="2:6" hidden="1">
-      <c r="B23" s="10">
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="2:6" hidden="1">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <v>204.23849999999999</v>
       </c>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="2:6" hidden="1">
-      <c r="B24" s="8">
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="2:6" hidden="1">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="9">
         <v>204.07139999999998</v>
       </c>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="2:6" hidden="1">
-      <c r="B25" s="10">
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="2:6" hidden="1">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>203.20929999999998</v>
       </c>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="2:6" hidden="1">
-      <c r="B26" s="8">
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="2:6" hidden="1">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="9">
         <v>202.66370000000001</v>
       </c>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="2:6" hidden="1">
-      <c r="B27" s="10">
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="2:6" hidden="1">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>203.10400000000001</v>
       </c>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="2:6" hidden="1">
-      <c r="B28" s="8">
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="2:6" hidden="1">
+      <c r="B29" s="8">
         <v>2023</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D29" s="9">
         <v>202.33760000000001</v>
       </c>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="2:6" hidden="1">
-      <c r="B29" s="10">
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="2:6" hidden="1">
+      <c r="B30" s="10">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <v>200.17829999999998</v>
       </c>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="2:6" hidden="1">
-      <c r="B30" s="12">
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="2:6" hidden="1">
+      <c r="B31" s="12">
         <v>2023</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D31" s="13">
         <v>200.99789999999999</v>
       </c>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="2:6" hidden="1">
-      <c r="B31" s="10">
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="2:6" hidden="1">
+      <c r="B32" s="10">
         <v>2022</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <v>199.0942</v>
       </c>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="2:6" hidden="1">
-      <c r="B32" s="8">
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="8">
         <v>2022</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="9">
         <v>198.2405</v>
       </c>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="2:6" hidden="1">
-      <c r="B33" s="10">
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>196.84710000000001</v>
       </c>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="8">
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="8">
         <v>2022</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="9">
         <v>196.91749999999999</v>
       </c>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="2:6" hidden="1">
-      <c r="B35" s="10">
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>198.52929999999998</v>
       </c>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="2:6" hidden="1">
-      <c r="B36" s="8">
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="9">
         <v>199.47979999999998</v>
       </c>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="2:6" hidden="1">
-      <c r="B37" s="10">
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>198.53700000000001</v>
       </c>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="2:6" hidden="1">
-      <c r="B38" s="8">
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="9">
         <v>199.50379999999998</v>
       </c>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="2:6" hidden="1">
-      <c r="B39" s="10">
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>199.1746</v>
       </c>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="2:6" hidden="1">
-      <c r="B40" s="8">
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="8">
         <v>2022</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D41" s="9">
         <v>200.8065</v>
       </c>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="2:6" hidden="1">
-      <c r="B41" s="10">
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42" s="10">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <v>201.6764</v>
       </c>
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42" spans="2:6" hidden="1">
-      <c r="B42" s="12">
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43" s="12">
         <v>2022</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D43" s="13">
         <v>201.63770000000002</v>
       </c>
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43" spans="2:6" hidden="1">
-      <c r="B43" s="10">
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="10">
         <v>2021</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <v>202.39920000000001</v>
       </c>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="2:6" ht="18" hidden="1" customHeight="1">
-      <c r="B44" s="8">
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="2:6" ht="18" hidden="1" customHeight="1">
+      <c r="B45" s="8">
         <v>2021</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="9">
         <v>199.50190000000001</v>
       </c>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" spans="2:6" hidden="1">
-      <c r="B45" s="10">
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>198.85040000000001</v>
       </c>
-      <c r="F45" s="18"/>
-    </row>
-    <row r="46" spans="2:6" hidden="1">
-      <c r="B46" s="8">
+      <c r="F46" s="18"/>
+    </row>
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="8">
         <v>2021</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="9">
         <v>198.4144</v>
       </c>
-      <c r="F46" s="18"/>
-    </row>
-    <row r="47" spans="2:6" hidden="1">
-      <c r="B47" s="10">
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <v>205.51249999999999</v>
       </c>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" spans="2:6" hidden="1">
-      <c r="B48" s="8">
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="9">
         <v>193.42370000000003</v>
       </c>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" spans="2:6" hidden="1">
-      <c r="B49" s="10">
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" spans="2:6" hidden="1">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>192.8819</v>
       </c>
-      <c r="F49" s="18"/>
-    </row>
-    <row r="50" spans="2:6" hidden="1">
-      <c r="B50" s="8">
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="9">
         <v>194.09710000000001</v>
       </c>
-      <c r="F50" s="18"/>
-    </row>
-    <row r="51" spans="2:6" hidden="1">
-      <c r="B51" s="10">
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>195.26760000000002</v>
       </c>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" spans="2:6" hidden="1">
-      <c r="B52" s="8">
+      <c r="F52" s="18"/>
+    </row>
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="8">
         <v>2021</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D53" s="9">
         <v>194.77420000000001</v>
       </c>
-      <c r="F52" s="18"/>
-    </row>
-    <row r="53" spans="2:6" hidden="1">
-      <c r="B53" s="10">
+      <c r="F53" s="18"/>
+    </row>
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="10">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <v>195.26949999999999</v>
       </c>
-      <c r="F53" s="18"/>
-    </row>
-    <row r="54" spans="2:6" hidden="1">
-      <c r="B54" s="12">
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="12">
         <v>2021</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D55" s="13">
         <v>195.9461</v>
       </c>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55" spans="2:6" hidden="1">
-      <c r="B55" s="10">
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="10">
         <v>2020</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <v>195.66720000000001</v>
       </c>
-      <c r="F55" s="18"/>
-    </row>
-    <row r="56" spans="2:6" hidden="1">
-      <c r="B56" s="8">
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="8">
         <v>2020</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="9">
         <v>194.28670000000002</v>
       </c>
-      <c r="F56" s="18"/>
-    </row>
-    <row r="57" spans="2:6" hidden="1">
-      <c r="B57" s="10">
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>194.3511</v>
       </c>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="8">
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="8">
         <v>2020</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="9">
         <v>193.95660000000001</v>
       </c>
-      <c r="F58" s="18"/>
-    </row>
-    <row r="59" spans="2:6" hidden="1">
-      <c r="B59" s="10">
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <v>193.33410000000001</v>
       </c>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60" spans="2:6" hidden="1">
-      <c r="B60" s="8">
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="9">
         <v>192.60560000000001</v>
       </c>
-      <c r="F60" s="18"/>
-    </row>
-    <row r="61" spans="2:6" hidden="1">
-      <c r="B61" s="10">
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>189.61520000000002</v>
       </c>
-      <c r="F61" s="18"/>
-    </row>
-    <row r="62" spans="2:6" hidden="1">
-      <c r="B62" s="8">
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="9">
         <v>187.31560000000002</v>
       </c>
-      <c r="F62" s="18"/>
-    </row>
-    <row r="63" spans="2:6" hidden="1">
-      <c r="B63" s="10">
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>186.65539999999999</v>
       </c>
-      <c r="F63" s="18"/>
-    </row>
-    <row r="64" spans="2:6" hidden="1">
-      <c r="B64" s="8">
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="8">
         <v>2020</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D65" s="9">
         <v>185.52879999999999</v>
       </c>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="2:6" hidden="1">
-      <c r="B65" s="10">
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="10">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <v>184.24960000000002</v>
       </c>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="2:6" hidden="1">
-      <c r="B66" s="12">
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="12">
         <v>2020</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D67" s="13">
         <v>182.79640000000001</v>
       </c>
-      <c r="F66" s="18"/>
-    </row>
-    <row r="67" spans="2:6" hidden="1">
-      <c r="B67" s="10">
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="10">
         <v>2019</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <v>180.87720000000002</v>
       </c>
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68" spans="2:6" hidden="1">
-      <c r="B68" s="8">
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="8">
         <v>2019</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="9">
         <v>180.59729999999999</v>
       </c>
-      <c r="F68" s="18"/>
-    </row>
-    <row r="69" spans="2:6" hidden="1">
-      <c r="B69" s="10">
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>180.7492</v>
       </c>
-      <c r="F69" s="18"/>
-    </row>
-    <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="8">
+      <c r="F70" s="18"/>
+    </row>
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="8">
         <v>2019</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="9">
         <v>180.20829999999998</v>
       </c>
-      <c r="F70" s="18"/>
-    </row>
-    <row r="71" spans="2:6" hidden="1">
-      <c r="B71" s="10">
+      <c r="F71" s="18"/>
+    </row>
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <v>180.37700000000001</v>
       </c>
-      <c r="F71" s="18"/>
-    </row>
-    <row r="72" spans="2:6" hidden="1">
-      <c r="B72" s="8">
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="9">
         <v>179.00659999999999</v>
       </c>
-      <c r="F72" s="18"/>
-    </row>
-    <row r="73" spans="2:6" hidden="1">
-      <c r="B73" s="10">
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>178.86760000000001</v>
       </c>
-      <c r="F73" s="18"/>
-    </row>
-    <row r="74" spans="2:6" hidden="1">
-      <c r="B74" s="8">
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <v>177.85589999999999</v>
       </c>
-      <c r="F74" s="18"/>
-    </row>
-    <row r="75" spans="2:6" hidden="1">
-      <c r="B75" s="10">
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>176.74250000000001</v>
       </c>
-      <c r="F75" s="18"/>
-    </row>
-    <row r="76" spans="2:6" hidden="1">
-      <c r="B76" s="8">
+      <c r="F76" s="18"/>
+    </row>
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="8">
         <v>2019</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D77" s="9">
         <v>176.64860000000002</v>
       </c>
-      <c r="F76" s="18"/>
-    </row>
-    <row r="77" spans="2:6" hidden="1">
-      <c r="B77" s="10">
+      <c r="F77" s="18"/>
+    </row>
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="10">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>175.73410000000001</v>
       </c>
-      <c r="F77" s="18"/>
-    </row>
-    <row r="78" spans="2:6" hidden="1">
-      <c r="B78" s="12">
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="12">
         <v>2019</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D79" s="13">
         <v>175.57229999999998</v>
       </c>
-      <c r="F78" s="18"/>
-    </row>
-    <row r="79" spans="2:6" hidden="1">
-      <c r="B79" s="10">
+      <c r="F79" s="18"/>
+    </row>
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <v>174.79249999999999</v>
       </c>
-      <c r="F79" s="18"/>
-    </row>
-    <row r="80" spans="2:6" hidden="1">
-      <c r="B80" s="8">
+      <c r="F80" s="18"/>
+    </row>
+    <row r="81" spans="2:8" hidden="1">
+      <c r="B81" s="8">
         <v>2018</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="9">
         <v>173.77529999999999</v>
       </c>
-      <c r="F80" s="18"/>
-    </row>
-    <row r="81" spans="2:8" hidden="1">
-      <c r="B81" s="10">
+      <c r="F81" s="18"/>
+    </row>
+    <row r="82" spans="2:8" hidden="1">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>173.46220000000002</v>
       </c>
-      <c r="F81" s="18"/>
-    </row>
-    <row r="82" spans="2:8" hidden="1">
-      <c r="B82" s="8">
+      <c r="F82" s="18"/>
+    </row>
+    <row r="83" spans="2:8" hidden="1">
+      <c r="B83" s="8">
         <v>2018</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="9">
         <v>173.56610000000001</v>
       </c>
-      <c r="F82" s="18"/>
-    </row>
-    <row r="83" spans="2:8" hidden="1">
-      <c r="B83" s="10">
+      <c r="F83" s="18"/>
+    </row>
+    <row r="84" spans="2:8" hidden="1">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>173.6061</v>
       </c>
-      <c r="F83" s="18"/>
-    </row>
-    <row r="84" spans="2:8" hidden="1">
-      <c r="B84" s="8">
+      <c r="F84" s="18"/>
+    </row>
+    <row r="85" spans="2:8" hidden="1">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="9">
         <v>173.2835</v>
       </c>
-      <c r="F84" s="18"/>
-    </row>
-    <row r="85" spans="2:8" hidden="1">
-      <c r="B85" s="10">
+      <c r="F85" s="18"/>
+    </row>
+    <row r="86" spans="2:8" hidden="1">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>173.2114</v>
       </c>
-      <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="2:8" hidden="1">
-      <c r="B86" s="8">
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="2:8" hidden="1">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="9">
         <v>173.31120000000001</v>
       </c>
-      <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="2:8" hidden="1">
-      <c r="B87" s="10">
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="2:8" hidden="1">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <v>173.1146</v>
       </c>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="2:8" hidden="1">
-      <c r="B88" s="8">
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="2:8" hidden="1">
+      <c r="B89" s="8">
         <v>2018</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D89" s="9">
         <v>173.23160000000001</v>
       </c>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="2:8" hidden="1">
-      <c r="B89" s="10">
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="2:8" hidden="1">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <v>172.89010000000002</v>
-      </c>
-      <c r="E89" s="14"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-    </row>
-    <row r="90" spans="2:8" hidden="1">
-      <c r="B90" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="13">
-        <v>173.20520000000002</v>
       </c>
       <c r="E90" s="14"/>
       <c r="F90" s="7"/>
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
     </row>
-    <row r="91" spans="2:8">
-      <c r="B91" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="14"/>
+    <row r="91" spans="2:8" hidden="1">
+      <c r="B91" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="13">
+        <v>173.20520000000002</v>
+      </c>
       <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
+      <c r="F91" s="7"/>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
     </row>
     <row r="92" spans="2:8">
       <c r="B92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="3" t="s">
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="14"/>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2"/>
+      <c r="D94" s="14"/>
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="15"/>
-    </row>
-    <row r="95" spans="2:8">
       <c r="D95" s="15"/>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="D96" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Reservas_internacionales.xlsx
+++ b/Reservas_internacionales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED28524-321D-44A0-BB40-86B6FCE07EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3238A1A-A70B-4DFD-93A5-64394C7AC009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_4" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="22">
   <si>
     <t>Reserva Internacional</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Oct</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -436,8 +436,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D91" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B4:D91" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D92" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B4:D92" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -676,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N96"/>
+  <dimension ref="B2:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -743,1087 +743,1098 @@
       </c>
     </row>
     <row r="5" spans="2:14" s="7" customFormat="1">
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>2025</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11">
+        <v>239.7184</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" s="7" customFormat="1">
+      <c r="B6" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="9">
         <v>237.29920000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:14" s="7" customFormat="1">
-      <c r="B6" s="10">
+    <row r="7" spans="2:14" s="7" customFormat="1">
+      <c r="B7" s="10">
         <v>2025</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <v>234.3468</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="7" customFormat="1">
-      <c r="B7" s="12">
+    <row r="8" spans="2:14" s="7" customFormat="1">
+      <c r="B8" s="12">
         <v>2025</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D8" s="13">
         <v>230.76400000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:14" s="7" customFormat="1">
-      <c r="B8" s="10">
+    <row r="9" spans="2:14" s="7" customFormat="1">
+      <c r="B9" s="10">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <v>228.9896</v>
       </c>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="2:14" s="7" customFormat="1">
-      <c r="B9" s="8">
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="2:14" s="7" customFormat="1">
+      <c r="B10" s="8">
         <v>2024</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="9">
         <v>228.3922</v>
       </c>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="2:14" s="7" customFormat="1">
-      <c r="B10" s="10">
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="2:14" s="7" customFormat="1">
+      <c r="B11" s="10">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>226.09610000000001</v>
       </c>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="2:14" s="7" customFormat="1">
-      <c r="B11" s="8">
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="2:14" s="7" customFormat="1">
+      <c r="B12" s="8">
         <v>2024</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="9">
         <v>226.7243</v>
       </c>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="2:14" s="7" customFormat="1">
-      <c r="B12" s="10">
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="2:14" s="7" customFormat="1">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>224.77789999999999</v>
       </c>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="2:14" ht="18" customHeight="1">
-      <c r="B13" s="8">
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="2:14" ht="18" customHeight="1">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>222.34829999999999</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="2:14" ht="18" customHeight="1">
-      <c r="B14" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="11">
-        <v>219.99689999999998</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="8">
+    <row r="15" spans="2:14" ht="18" customHeight="1">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="11">
+        <v>219.99689999999998</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="9">
         <v>218.72629999999998</v>
       </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="10">
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="10">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>217.18979999999999</v>
       </c>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="8">
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="8">
         <v>2024</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D18" s="9">
         <v>217.19379999999998</v>
       </c>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="10">
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="10">
         <v>2024</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>213.72200000000001</v>
       </c>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="12">
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="12">
         <v>2024</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="13">
         <v>213.3159</v>
       </c>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="2:6" hidden="1">
-      <c r="B20" s="16">
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="2:6" hidden="1">
+      <c r="B21" s="16">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D21" s="17">
         <v>212.7619</v>
       </c>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="2:6" hidden="1">
-      <c r="B21" s="8">
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="2:6" hidden="1">
+      <c r="B22" s="8">
         <v>2023</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="9">
         <v>206.83920000000001</v>
       </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="2:6" hidden="1">
-      <c r="B22" s="10">
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="2:6" hidden="1">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>204.4032</v>
       </c>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="2:6" hidden="1">
-      <c r="B23" s="8">
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="2:6" hidden="1">
+      <c r="B24" s="8">
         <v>2023</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="9">
         <v>203.76760000000002</v>
       </c>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="2:6" hidden="1">
-      <c r="B24" s="10">
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="2:6" hidden="1">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <v>204.23849999999999</v>
       </c>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="2:6" hidden="1">
-      <c r="B25" s="8">
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="2:6" hidden="1">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="9">
         <v>204.07139999999998</v>
       </c>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="2:6" hidden="1">
-      <c r="B26" s="10">
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="2:6" hidden="1">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>203.20929999999998</v>
       </c>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="2:6" hidden="1">
-      <c r="B27" s="8">
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="2:6" hidden="1">
+      <c r="B28" s="8">
         <v>2023</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D28" s="9">
         <v>202.66370000000001</v>
       </c>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="2:6" hidden="1">
-      <c r="B28" s="10">
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="2:6" hidden="1">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>203.10400000000001</v>
       </c>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="2:6" hidden="1">
-      <c r="B29" s="8">
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="2:6" hidden="1">
+      <c r="B30" s="8">
         <v>2023</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="9">
         <v>202.33760000000001</v>
       </c>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="2:6" hidden="1">
-      <c r="B30" s="10">
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="2:6" hidden="1">
+      <c r="B31" s="10">
         <v>2023</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>200.17829999999998</v>
       </c>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="2:6" hidden="1">
-      <c r="B31" s="12">
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="2:6" hidden="1">
+      <c r="B32" s="12">
         <v>2023</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D32" s="13">
         <v>200.99789999999999</v>
       </c>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="2:6" hidden="1">
-      <c r="B32" s="10">
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="10">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>199.0942</v>
       </c>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="2:6" hidden="1">
-      <c r="B33" s="8">
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="8">
         <v>2022</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="9">
         <v>198.2405</v>
       </c>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="10">
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>196.84710000000001</v>
       </c>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="2:6" hidden="1">
-      <c r="B35" s="8">
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="8">
         <v>2022</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D36" s="9">
         <v>196.91749999999999</v>
       </c>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="2:6" hidden="1">
-      <c r="B36" s="10">
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>198.52929999999998</v>
       </c>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="2:6" hidden="1">
-      <c r="B37" s="8">
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="9">
         <v>199.47979999999998</v>
       </c>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="2:6" hidden="1">
-      <c r="B38" s="10">
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>198.53700000000001</v>
       </c>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="2:6" hidden="1">
-      <c r="B39" s="8">
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="8">
         <v>2022</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D40" s="9">
         <v>199.50379999999998</v>
       </c>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="2:6" hidden="1">
-      <c r="B40" s="10">
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>199.1746</v>
       </c>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="2:6" hidden="1">
-      <c r="B41" s="8">
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42" s="8">
         <v>2022</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D42" s="9">
         <v>200.8065</v>
       </c>
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42" spans="2:6" hidden="1">
-      <c r="B42" s="10">
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43" s="10">
         <v>2022</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <v>201.6764</v>
       </c>
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43" spans="2:6" hidden="1">
-      <c r="B43" s="12">
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="12">
         <v>2022</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D44" s="13">
         <v>201.63770000000002</v>
       </c>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="2:6" hidden="1">
-      <c r="B44" s="10">
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="10">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <v>202.39920000000001</v>
       </c>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" spans="2:6" ht="18" hidden="1" customHeight="1">
-      <c r="B45" s="8">
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" spans="2:6" ht="18" hidden="1" customHeight="1">
+      <c r="B46" s="8">
         <v>2021</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="9">
         <v>199.50190000000001</v>
       </c>
-      <c r="F45" s="18"/>
-    </row>
-    <row r="46" spans="2:6" hidden="1">
-      <c r="B46" s="10">
+      <c r="F46" s="18"/>
+    </row>
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>198.85040000000001</v>
       </c>
-      <c r="F46" s="18"/>
-    </row>
-    <row r="47" spans="2:6" hidden="1">
-      <c r="B47" s="8">
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="8">
         <v>2021</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D48" s="9">
         <v>198.4144</v>
       </c>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" spans="2:6" hidden="1">
-      <c r="B48" s="10">
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <v>205.51249999999999</v>
       </c>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" spans="2:6" hidden="1">
-      <c r="B49" s="8">
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" spans="2:6" hidden="1">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="9">
         <v>193.42370000000003</v>
       </c>
-      <c r="F49" s="18"/>
-    </row>
-    <row r="50" spans="2:6" hidden="1">
-      <c r="B50" s="10">
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>192.8819</v>
       </c>
-      <c r="F50" s="18"/>
-    </row>
-    <row r="51" spans="2:6" hidden="1">
-      <c r="B51" s="8">
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="8">
         <v>2021</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D52" s="9">
         <v>194.09710000000001</v>
       </c>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" spans="2:6" hidden="1">
-      <c r="B52" s="10">
+      <c r="F52" s="18"/>
+    </row>
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <v>195.26760000000002</v>
       </c>
-      <c r="F52" s="18"/>
-    </row>
-    <row r="53" spans="2:6" hidden="1">
-      <c r="B53" s="8">
+      <c r="F53" s="18"/>
+    </row>
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="8">
         <v>2021</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D54" s="9">
         <v>194.77420000000001</v>
       </c>
-      <c r="F53" s="18"/>
-    </row>
-    <row r="54" spans="2:6" hidden="1">
-      <c r="B54" s="10">
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="10">
         <v>2021</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>195.26949999999999</v>
       </c>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55" spans="2:6" hidden="1">
-      <c r="B55" s="12">
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="12">
         <v>2021</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D56" s="13">
         <v>195.9461</v>
       </c>
-      <c r="F55" s="18"/>
-    </row>
-    <row r="56" spans="2:6" hidden="1">
-      <c r="B56" s="10">
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="10">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>195.66720000000001</v>
       </c>
-      <c r="F56" s="18"/>
-    </row>
-    <row r="57" spans="2:6" hidden="1">
-      <c r="B57" s="8">
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="8">
         <v>2020</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="9">
         <v>194.28670000000002</v>
       </c>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="10">
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>194.3511</v>
       </c>
-      <c r="F58" s="18"/>
-    </row>
-    <row r="59" spans="2:6" hidden="1">
-      <c r="B59" s="8">
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="8">
         <v>2020</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D60" s="9">
         <v>193.95660000000001</v>
       </c>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60" spans="2:6" hidden="1">
-      <c r="B60" s="10">
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>193.33410000000001</v>
       </c>
-      <c r="F60" s="18"/>
-    </row>
-    <row r="61" spans="2:6" hidden="1">
-      <c r="B61" s="8">
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="9">
         <v>192.60560000000001</v>
       </c>
-      <c r="F61" s="18"/>
-    </row>
-    <row r="62" spans="2:6" hidden="1">
-      <c r="B62" s="10">
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>189.61520000000002</v>
       </c>
-      <c r="F62" s="18"/>
-    </row>
-    <row r="63" spans="2:6" hidden="1">
-      <c r="B63" s="8">
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="8">
         <v>2020</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D64" s="9">
         <v>187.31560000000002</v>
       </c>
-      <c r="F63" s="18"/>
-    </row>
-    <row r="64" spans="2:6" hidden="1">
-      <c r="B64" s="10">
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>186.65539999999999</v>
       </c>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="2:6" hidden="1">
-      <c r="B65" s="8">
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="8">
         <v>2020</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D66" s="9">
         <v>185.52879999999999</v>
       </c>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="2:6" hidden="1">
-      <c r="B66" s="10">
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="10">
         <v>2020</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>184.24960000000002</v>
       </c>
-      <c r="F66" s="18"/>
-    </row>
-    <row r="67" spans="2:6" hidden="1">
-      <c r="B67" s="12">
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="12">
         <v>2020</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D68" s="13">
         <v>182.79640000000001</v>
       </c>
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68" spans="2:6" hidden="1">
-      <c r="B68" s="10">
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="10">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>180.87720000000002</v>
       </c>
-      <c r="F68" s="18"/>
-    </row>
-    <row r="69" spans="2:6" hidden="1">
-      <c r="B69" s="8">
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="8">
         <v>2019</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="9">
         <v>180.59729999999999</v>
       </c>
-      <c r="F69" s="18"/>
-    </row>
-    <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="10">
+      <c r="F70" s="18"/>
+    </row>
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>180.7492</v>
       </c>
-      <c r="F70" s="18"/>
-    </row>
-    <row r="71" spans="2:6" hidden="1">
-      <c r="B71" s="8">
+      <c r="F71" s="18"/>
+    </row>
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="8">
         <v>2019</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D72" s="9">
         <v>180.20829999999998</v>
       </c>
-      <c r="F71" s="18"/>
-    </row>
-    <row r="72" spans="2:6" hidden="1">
-      <c r="B72" s="10">
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>180.37700000000001</v>
       </c>
-      <c r="F72" s="18"/>
-    </row>
-    <row r="73" spans="2:6" hidden="1">
-      <c r="B73" s="8">
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D74" s="9">
         <v>179.00659999999999</v>
       </c>
-      <c r="F73" s="18"/>
-    </row>
-    <row r="74" spans="2:6" hidden="1">
-      <c r="B74" s="10">
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>178.86760000000001</v>
       </c>
-      <c r="F74" s="18"/>
-    </row>
-    <row r="75" spans="2:6" hidden="1">
-      <c r="B75" s="8">
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="8">
         <v>2019</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D76" s="9">
         <v>177.85589999999999</v>
       </c>
-      <c r="F75" s="18"/>
-    </row>
-    <row r="76" spans="2:6" hidden="1">
-      <c r="B76" s="10">
+      <c r="F76" s="18"/>
+    </row>
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>176.74250000000001</v>
       </c>
-      <c r="F76" s="18"/>
-    </row>
-    <row r="77" spans="2:6" hidden="1">
-      <c r="B77" s="8">
+      <c r="F77" s="18"/>
+    </row>
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="8">
         <v>2019</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D78" s="9">
         <v>176.64860000000002</v>
       </c>
-      <c r="F77" s="18"/>
-    </row>
-    <row r="78" spans="2:6" hidden="1">
-      <c r="B78" s="10">
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="10">
         <v>2019</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>175.73410000000001</v>
       </c>
-      <c r="F78" s="18"/>
-    </row>
-    <row r="79" spans="2:6" hidden="1">
-      <c r="B79" s="12">
+      <c r="F79" s="18"/>
+    </row>
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="12">
         <v>2019</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D80" s="13">
         <v>175.57229999999998</v>
       </c>
-      <c r="F79" s="18"/>
-    </row>
-    <row r="80" spans="2:6" hidden="1">
-      <c r="B80" s="10">
+      <c r="F80" s="18"/>
+    </row>
+    <row r="81" spans="2:8" hidden="1">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>174.79249999999999</v>
       </c>
-      <c r="F80" s="18"/>
-    </row>
-    <row r="81" spans="2:8" hidden="1">
-      <c r="B81" s="8">
+      <c r="F81" s="18"/>
+    </row>
+    <row r="82" spans="2:8" hidden="1">
+      <c r="B82" s="8">
         <v>2018</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D82" s="9">
         <v>173.77529999999999</v>
       </c>
-      <c r="F81" s="18"/>
-    </row>
-    <row r="82" spans="2:8" hidden="1">
-      <c r="B82" s="10">
+      <c r="F82" s="18"/>
+    </row>
+    <row r="83" spans="2:8" hidden="1">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>173.46220000000002</v>
       </c>
-      <c r="F82" s="18"/>
-    </row>
-    <row r="83" spans="2:8" hidden="1">
-      <c r="B83" s="8">
+      <c r="F83" s="18"/>
+    </row>
+    <row r="84" spans="2:8" hidden="1">
+      <c r="B84" s="8">
         <v>2018</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D84" s="9">
         <v>173.56610000000001</v>
       </c>
-      <c r="F83" s="18"/>
-    </row>
-    <row r="84" spans="2:8" hidden="1">
-      <c r="B84" s="10">
+      <c r="F84" s="18"/>
+    </row>
+    <row r="85" spans="2:8" hidden="1">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>173.6061</v>
       </c>
-      <c r="F84" s="18"/>
-    </row>
-    <row r="85" spans="2:8" hidden="1">
-      <c r="B85" s="8">
+      <c r="F85" s="18"/>
+    </row>
+    <row r="86" spans="2:8" hidden="1">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D86" s="9">
         <v>173.2835</v>
       </c>
-      <c r="F85" s="18"/>
-    </row>
-    <row r="86" spans="2:8" hidden="1">
-      <c r="B86" s="10">
+      <c r="F86" s="18"/>
+    </row>
+    <row r="87" spans="2:8" hidden="1">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>173.2114</v>
       </c>
-      <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="2:8" hidden="1">
-      <c r="B87" s="8">
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="2:8" hidden="1">
+      <c r="B88" s="8">
         <v>2018</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D88" s="9">
         <v>173.31120000000001</v>
       </c>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="2:8" hidden="1">
-      <c r="B88" s="10">
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="2:8" hidden="1">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <v>173.1146</v>
       </c>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="2:8" hidden="1">
-      <c r="B89" s="8">
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="2:8" hidden="1">
+      <c r="B90" s="8">
         <v>2018</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D90" s="9">
         <v>173.23160000000001</v>
       </c>
-      <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="2:8" hidden="1">
-      <c r="B90" s="10">
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="2:8" hidden="1">
+      <c r="B91" s="10">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <v>172.89010000000002</v>
-      </c>
-      <c r="E90" s="14"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-    </row>
-    <row r="91" spans="2:8" hidden="1">
-      <c r="B91" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="13">
-        <v>173.20520000000002</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="7"/>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
     </row>
-    <row r="92" spans="2:8">
-      <c r="B92" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="14"/>
+    <row r="92" spans="2:8" hidden="1">
+      <c r="B92" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="13">
+        <v>173.20520000000002</v>
+      </c>
       <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
+      <c r="F92" s="7"/>
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="B94" s="3" t="s">
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="14"/>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2"/>
+      <c r="D95" s="14"/>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D95" s="15"/>
-    </row>
-    <row r="96" spans="2:8">
       <c r="D96" s="15"/>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Reservas_internacionales.xlsx
+++ b/Reservas_internacionales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3238A1A-A70B-4DFD-93A5-64394C7AC009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266DE2F6-F3AE-40A3-B982-D428D20C42D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="22">
   <si>
     <t>Reserva Internacional</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Oct</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -436,8 +436,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D92" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B4:D92" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D94" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B4:D94" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -676,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N97"/>
+  <dimension ref="B2:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -690,9 +690,7 @@
     <col min="4" max="4" width="20.375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="18.875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.625" style="3" customWidth="1"/>
+    <col min="7" max="13" width="8.875" style="3" customWidth="1"/>
     <col min="14" max="14" width="8.75" style="3" customWidth="1"/>
     <col min="15" max="16384" width="11" style="3"/>
   </cols>
@@ -747,10 +745,10 @@
         <v>2025</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="11">
-        <v>239.7184</v>
+        <v>241.71559999999999</v>
       </c>
     </row>
     <row r="6" spans="2:14" s="7" customFormat="1">
@@ -758,10 +756,10 @@
         <v>2025</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="9">
-        <v>237.29920000000001</v>
+        <v>239.98160000000001</v>
       </c>
     </row>
     <row r="7" spans="2:14" s="7" customFormat="1">
@@ -769,56 +767,54 @@
         <v>2025</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="11">
-        <v>234.3468</v>
+        <v>239.7184</v>
       </c>
     </row>
     <row r="8" spans="2:14" s="7" customFormat="1">
-      <c r="B8" s="12">
+      <c r="B8" s="8">
         <v>2025</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="13">
-        <v>230.76400000000001</v>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="9">
+        <v>237.29920000000001</v>
       </c>
     </row>
     <row r="9" spans="2:14" s="7" customFormat="1">
       <c r="B9" s="10">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="11">
-        <v>228.9896</v>
-      </c>
-      <c r="F9" s="18"/>
+        <v>234.3468</v>
+      </c>
     </row>
     <row r="10" spans="2:14" s="7" customFormat="1">
-      <c r="B10" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="9">
-        <v>228.3922</v>
-      </c>
-      <c r="F10" s="18"/>
+      <c r="B10" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="13">
+        <v>230.76400000000001</v>
+      </c>
     </row>
     <row r="11" spans="2:14" s="7" customFormat="1">
       <c r="B11" s="10">
         <v>2024</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11">
-        <v>226.09610000000001</v>
+        <v>228.9896</v>
       </c>
       <c r="F11" s="18"/>
     </row>
@@ -827,10 +823,10 @@
         <v>2024</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="9">
-        <v>226.7243</v>
+        <v>228.3922</v>
       </c>
       <c r="F12" s="18"/>
     </row>
@@ -839,61 +835,61 @@
         <v>2024</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D13" s="11">
-        <v>224.77789999999999</v>
+        <v>226.09610000000001</v>
       </c>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="2:14" ht="18" customHeight="1">
+    <row r="14" spans="2:14" s="7" customFormat="1">
       <c r="B14" s="8">
         <v>2024</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D14" s="9">
-        <v>222.34829999999999</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>226.7243</v>
+      </c>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="2:14" ht="18" customHeight="1">
+    <row r="15" spans="2:14" s="7" customFormat="1">
       <c r="B15" s="10">
         <v>2024</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" s="11">
-        <v>219.99689999999998</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>224.77789999999999</v>
+      </c>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" ht="18" customHeight="1">
       <c r="B16" s="8">
         <v>2024</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="9">
-        <v>218.72629999999998</v>
-      </c>
+        <v>222.34829999999999</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" ht="18" customHeight="1">
       <c r="B17" s="10">
         <v>2024</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="11">
-        <v>217.18979999999999</v>
-      </c>
+        <v>219.99689999999998</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="2:6">
@@ -901,10 +897,10 @@
         <v>2024</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" s="9">
-        <v>217.19379999999998</v>
+        <v>218.72629999999998</v>
       </c>
       <c r="F18" s="18"/>
     </row>
@@ -913,58 +909,58 @@
         <v>2024</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="11">
+        <v>217.18979999999999</v>
+      </c>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="9">
+        <v>217.19379999999998</v>
+      </c>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D21" s="11">
         <v>213.72200000000001</v>
       </c>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="12">
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="12">
         <v>2024</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D22" s="13">
         <v>213.3159</v>
       </c>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="2:6" hidden="1">
-      <c r="B21" s="16">
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="2:6" hidden="1">
+      <c r="B23" s="16">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D23" s="17">
         <v>212.7619</v>
-      </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="2:6" hidden="1">
-      <c r="B22" s="8">
-        <v>2023</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="9">
-        <v>206.83920000000001</v>
-      </c>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="2:6" hidden="1">
-      <c r="B23" s="10">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="11">
-        <v>204.4032</v>
       </c>
       <c r="F23" s="18"/>
     </row>
@@ -973,10 +969,10 @@
         <v>2023</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" s="9">
-        <v>203.76760000000002</v>
+        <v>206.83920000000001</v>
       </c>
       <c r="F24" s="18"/>
     </row>
@@ -985,10 +981,10 @@
         <v>2023</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D25" s="11">
-        <v>204.23849999999999</v>
+        <v>204.4032</v>
       </c>
       <c r="F25" s="18"/>
     </row>
@@ -997,10 +993,10 @@
         <v>2023</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D26" s="9">
-        <v>204.07139999999998</v>
+        <v>203.76760000000002</v>
       </c>
       <c r="F26" s="18"/>
     </row>
@@ -1009,10 +1005,10 @@
         <v>2023</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27" s="11">
-        <v>203.20929999999998</v>
+        <v>204.23849999999999</v>
       </c>
       <c r="F27" s="18"/>
     </row>
@@ -1021,10 +1017,10 @@
         <v>2023</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" s="9">
-        <v>202.66370000000001</v>
+        <v>204.07139999999998</v>
       </c>
       <c r="F28" s="18"/>
     </row>
@@ -1033,10 +1029,10 @@
         <v>2023</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" s="11">
-        <v>203.10400000000001</v>
+        <v>203.20929999999998</v>
       </c>
       <c r="F29" s="18"/>
     </row>
@@ -1045,10 +1041,10 @@
         <v>2023</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" s="9">
-        <v>202.33760000000001</v>
+        <v>202.66370000000001</v>
       </c>
       <c r="F30" s="18"/>
     </row>
@@ -1057,46 +1053,46 @@
         <v>2023</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" s="11">
-        <v>200.17829999999998</v>
+        <v>203.10400000000001</v>
       </c>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="2:6" hidden="1">
-      <c r="B32" s="12">
+      <c r="B32" s="8">
         <v>2023</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="13">
-        <v>200.99789999999999</v>
+      <c r="C32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="9">
+        <v>202.33760000000001</v>
       </c>
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="2:6" hidden="1">
       <c r="B33" s="10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" s="11">
-        <v>199.0942</v>
+        <v>200.17829999999998</v>
       </c>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="8">
-        <v>2022</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="9">
-        <v>198.2405</v>
+      <c r="B34" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="13">
+        <v>200.99789999999999</v>
       </c>
       <c r="F34" s="18"/>
     </row>
@@ -1105,10 +1101,10 @@
         <v>2022</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D35" s="11">
-        <v>196.84710000000001</v>
+        <v>199.0942</v>
       </c>
       <c r="F35" s="18"/>
     </row>
@@ -1117,10 +1113,10 @@
         <v>2022</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D36" s="9">
-        <v>196.91749999999999</v>
+        <v>198.2405</v>
       </c>
       <c r="F36" s="18"/>
     </row>
@@ -1129,10 +1125,10 @@
         <v>2022</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D37" s="11">
-        <v>198.52929999999998</v>
+        <v>196.84710000000001</v>
       </c>
       <c r="F37" s="18"/>
     </row>
@@ -1141,10 +1137,10 @@
         <v>2022</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D38" s="9">
-        <v>199.47979999999998</v>
+        <v>196.91749999999999</v>
       </c>
       <c r="F38" s="18"/>
     </row>
@@ -1153,10 +1149,10 @@
         <v>2022</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D39" s="11">
-        <v>198.53700000000001</v>
+        <v>198.52929999999998</v>
       </c>
       <c r="F39" s="18"/>
     </row>
@@ -1165,10 +1161,10 @@
         <v>2022</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" s="9">
-        <v>199.50379999999998</v>
+        <v>199.47979999999998</v>
       </c>
       <c r="F40" s="18"/>
     </row>
@@ -1177,10 +1173,10 @@
         <v>2022</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D41" s="11">
-        <v>199.1746</v>
+        <v>198.53700000000001</v>
       </c>
       <c r="F41" s="18"/>
     </row>
@@ -1189,10 +1185,10 @@
         <v>2022</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D42" s="9">
-        <v>200.8065</v>
+        <v>199.50379999999998</v>
       </c>
       <c r="F42" s="18"/>
     </row>
@@ -1201,46 +1197,46 @@
         <v>2022</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D43" s="11">
-        <v>201.6764</v>
+        <v>199.1746</v>
       </c>
       <c r="F43" s="18"/>
     </row>
     <row r="44" spans="2:6" hidden="1">
-      <c r="B44" s="12">
+      <c r="B44" s="8">
         <v>2022</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="13">
-        <v>201.63770000000002</v>
+      <c r="C44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="9">
+        <v>200.8065</v>
       </c>
       <c r="F44" s="18"/>
     </row>
     <row r="45" spans="2:6" hidden="1">
       <c r="B45" s="10">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D45" s="11">
-        <v>202.39920000000001</v>
+        <v>201.6764</v>
       </c>
       <c r="F45" s="18"/>
     </row>
-    <row r="46" spans="2:6" ht="18" hidden="1" customHeight="1">
-      <c r="B46" s="8">
-        <v>2021</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="9">
-        <v>199.50190000000001</v>
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="13">
+        <v>201.63770000000002</v>
       </c>
       <c r="F46" s="18"/>
     </row>
@@ -1249,22 +1245,22 @@
         <v>2021</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D47" s="11">
-        <v>198.85040000000001</v>
+        <v>202.39920000000001</v>
       </c>
       <c r="F47" s="18"/>
     </row>
-    <row r="48" spans="2:6" hidden="1">
+    <row r="48" spans="2:6" ht="18" hidden="1" customHeight="1">
       <c r="B48" s="8">
         <v>2021</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D48" s="9">
-        <v>198.4144</v>
+        <v>199.50190000000001</v>
       </c>
       <c r="F48" s="18"/>
     </row>
@@ -1273,10 +1269,10 @@
         <v>2021</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D49" s="11">
-        <v>205.51249999999999</v>
+        <v>198.85040000000001</v>
       </c>
       <c r="F49" s="18"/>
     </row>
@@ -1285,10 +1281,10 @@
         <v>2021</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D50" s="9">
-        <v>193.42370000000003</v>
+        <v>198.4144</v>
       </c>
       <c r="F50" s="18"/>
     </row>
@@ -1297,10 +1293,10 @@
         <v>2021</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D51" s="11">
-        <v>192.8819</v>
+        <v>205.51249999999999</v>
       </c>
       <c r="F51" s="18"/>
     </row>
@@ -1309,10 +1305,10 @@
         <v>2021</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" s="9">
-        <v>194.09710000000001</v>
+        <v>193.42370000000003</v>
       </c>
       <c r="F52" s="18"/>
     </row>
@@ -1321,10 +1317,10 @@
         <v>2021</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D53" s="11">
-        <v>195.26760000000002</v>
+        <v>192.8819</v>
       </c>
       <c r="F53" s="18"/>
     </row>
@@ -1333,10 +1329,10 @@
         <v>2021</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D54" s="9">
-        <v>194.77420000000001</v>
+        <v>194.09710000000001</v>
       </c>
       <c r="F54" s="18"/>
     </row>
@@ -1345,46 +1341,46 @@
         <v>2021</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D55" s="11">
-        <v>195.26949999999999</v>
+        <v>195.26760000000002</v>
       </c>
       <c r="F55" s="18"/>
     </row>
     <row r="56" spans="2:6" hidden="1">
-      <c r="B56" s="12">
+      <c r="B56" s="8">
         <v>2021</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="13">
-        <v>195.9461</v>
+      <c r="C56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="9">
+        <v>194.77420000000001</v>
       </c>
       <c r="F56" s="18"/>
     </row>
     <row r="57" spans="2:6" hidden="1">
       <c r="B57" s="10">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D57" s="11">
-        <v>195.66720000000001</v>
+        <v>195.26949999999999</v>
       </c>
       <c r="F57" s="18"/>
     </row>
     <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="8">
-        <v>2020</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="9">
-        <v>194.28670000000002</v>
+      <c r="B58" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="13">
+        <v>195.9461</v>
       </c>
       <c r="F58" s="18"/>
     </row>
@@ -1393,10 +1389,10 @@
         <v>2020</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D59" s="11">
-        <v>194.3511</v>
+        <v>195.66720000000001</v>
       </c>
       <c r="F59" s="18"/>
     </row>
@@ -1405,10 +1401,10 @@
         <v>2020</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D60" s="9">
-        <v>193.95660000000001</v>
+        <v>194.28670000000002</v>
       </c>
       <c r="F60" s="18"/>
     </row>
@@ -1417,10 +1413,10 @@
         <v>2020</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D61" s="11">
-        <v>193.33410000000001</v>
+        <v>194.3511</v>
       </c>
       <c r="F61" s="18"/>
     </row>
@@ -1429,10 +1425,10 @@
         <v>2020</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D62" s="9">
-        <v>192.60560000000001</v>
+        <v>193.95660000000001</v>
       </c>
       <c r="F62" s="18"/>
     </row>
@@ -1441,10 +1437,10 @@
         <v>2020</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D63" s="11">
-        <v>189.61520000000002</v>
+        <v>193.33410000000001</v>
       </c>
       <c r="F63" s="18"/>
     </row>
@@ -1453,10 +1449,10 @@
         <v>2020</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64" s="9">
-        <v>187.31560000000002</v>
+        <v>192.60560000000001</v>
       </c>
       <c r="F64" s="18"/>
     </row>
@@ -1465,10 +1461,10 @@
         <v>2020</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D65" s="11">
-        <v>186.65539999999999</v>
+        <v>189.61520000000002</v>
       </c>
       <c r="F65" s="18"/>
     </row>
@@ -1477,10 +1473,10 @@
         <v>2020</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D66" s="9">
-        <v>185.52879999999999</v>
+        <v>187.31560000000002</v>
       </c>
       <c r="F66" s="18"/>
     </row>
@@ -1489,46 +1485,46 @@
         <v>2020</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D67" s="11">
-        <v>184.24960000000002</v>
+        <v>186.65539999999999</v>
       </c>
       <c r="F67" s="18"/>
     </row>
     <row r="68" spans="2:6" hidden="1">
-      <c r="B68" s="12">
+      <c r="B68" s="8">
         <v>2020</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="13">
-        <v>182.79640000000001</v>
+      <c r="C68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="9">
+        <v>185.52879999999999</v>
       </c>
       <c r="F68" s="18"/>
     </row>
     <row r="69" spans="2:6" hidden="1">
       <c r="B69" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D69" s="11">
-        <v>180.87720000000002</v>
+        <v>184.24960000000002</v>
       </c>
       <c r="F69" s="18"/>
     </row>
     <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="8">
-        <v>2019</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="9">
-        <v>180.59729999999999</v>
+      <c r="B70" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="13">
+        <v>182.79640000000001</v>
       </c>
       <c r="F70" s="18"/>
     </row>
@@ -1537,10 +1533,10 @@
         <v>2019</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D71" s="11">
-        <v>180.7492</v>
+        <v>180.87720000000002</v>
       </c>
       <c r="F71" s="18"/>
     </row>
@@ -1549,10 +1545,10 @@
         <v>2019</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D72" s="9">
-        <v>180.20829999999998</v>
+        <v>180.59729999999999</v>
       </c>
       <c r="F72" s="18"/>
     </row>
@@ -1561,10 +1557,10 @@
         <v>2019</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D73" s="11">
-        <v>180.37700000000001</v>
+        <v>180.7492</v>
       </c>
       <c r="F73" s="18"/>
     </row>
@@ -1573,10 +1569,10 @@
         <v>2019</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D74" s="9">
-        <v>179.00659999999999</v>
+        <v>180.20829999999998</v>
       </c>
       <c r="F74" s="18"/>
     </row>
@@ -1585,10 +1581,10 @@
         <v>2019</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D75" s="11">
-        <v>178.86760000000001</v>
+        <v>180.37700000000001</v>
       </c>
       <c r="F75" s="18"/>
     </row>
@@ -1597,10 +1593,10 @@
         <v>2019</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D76" s="9">
-        <v>177.85589999999999</v>
+        <v>179.00659999999999</v>
       </c>
       <c r="F76" s="18"/>
     </row>
@@ -1609,10 +1605,10 @@
         <v>2019</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D77" s="11">
-        <v>176.74250000000001</v>
+        <v>178.86760000000001</v>
       </c>
       <c r="F77" s="18"/>
     </row>
@@ -1621,10 +1617,10 @@
         <v>2019</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D78" s="9">
-        <v>176.64860000000002</v>
+        <v>177.85589999999999</v>
       </c>
       <c r="F78" s="18"/>
     </row>
@@ -1633,46 +1629,46 @@
         <v>2019</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D79" s="11">
-        <v>175.73410000000001</v>
+        <v>176.74250000000001</v>
       </c>
       <c r="F79" s="18"/>
     </row>
     <row r="80" spans="2:6" hidden="1">
-      <c r="B80" s="12">
+      <c r="B80" s="8">
         <v>2019</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="13">
-        <v>175.57229999999998</v>
+      <c r="C80" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="9">
+        <v>176.64860000000002</v>
       </c>
       <c r="F80" s="18"/>
     </row>
     <row r="81" spans="2:8" hidden="1">
       <c r="B81" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D81" s="11">
-        <v>174.79249999999999</v>
+        <v>175.73410000000001</v>
       </c>
       <c r="F81" s="18"/>
     </row>
     <row r="82" spans="2:8" hidden="1">
-      <c r="B82" s="8">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="9">
-        <v>173.77529999999999</v>
+      <c r="B82" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="13">
+        <v>175.57229999999998</v>
       </c>
       <c r="F82" s="18"/>
     </row>
@@ -1681,10 +1677,10 @@
         <v>2018</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D83" s="11">
-        <v>173.46220000000002</v>
+        <v>174.79249999999999</v>
       </c>
       <c r="F83" s="18"/>
     </row>
@@ -1693,10 +1689,10 @@
         <v>2018</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D84" s="9">
-        <v>173.56610000000001</v>
+        <v>173.77529999999999</v>
       </c>
       <c r="F84" s="18"/>
     </row>
@@ -1705,10 +1701,10 @@
         <v>2018</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D85" s="11">
-        <v>173.6061</v>
+        <v>173.46220000000002</v>
       </c>
       <c r="F85" s="18"/>
     </row>
@@ -1717,10 +1713,10 @@
         <v>2018</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D86" s="9">
-        <v>173.2835</v>
+        <v>173.56610000000001</v>
       </c>
       <c r="F86" s="18"/>
     </row>
@@ -1729,34 +1725,34 @@
         <v>2018</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D87" s="11">
-        <v>173.2114</v>
-      </c>
-      <c r="F87" s="7"/>
+        <v>173.6061</v>
+      </c>
+      <c r="F87" s="18"/>
     </row>
     <row r="88" spans="2:8" hidden="1">
       <c r="B88" s="8">
         <v>2018</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D88" s="9">
-        <v>173.31120000000001</v>
-      </c>
-      <c r="F88" s="7"/>
+        <v>173.2835</v>
+      </c>
+      <c r="F88" s="18"/>
     </row>
     <row r="89" spans="2:8" hidden="1">
       <c r="B89" s="10">
         <v>2018</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D89" s="11">
-        <v>173.1146</v>
+        <v>173.2114</v>
       </c>
       <c r="F89" s="7"/>
     </row>
@@ -1765,10 +1761,10 @@
         <v>2018</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D90" s="9">
-        <v>173.23160000000001</v>
+        <v>173.31120000000001</v>
       </c>
       <c r="F90" s="7"/>
     </row>
@@ -1777,64 +1773,88 @@
         <v>2018</v>
       </c>
       <c r="C91" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="11">
+        <v>173.1146</v>
+      </c>
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="2:8" hidden="1">
+      <c r="B92" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="9">
+        <v>173.23160000000001</v>
+      </c>
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="2:8" hidden="1">
+      <c r="B93" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C93" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D93" s="11">
         <v>172.89010000000002</v>
       </c>
-      <c r="E91" s="14"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-    </row>
-    <row r="92" spans="2:8" hidden="1">
-      <c r="B92" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="13">
-        <v>173.20520000000002</v>
-      </c>
-      <c r="E92" s="14"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="14"/>
       <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
+      <c r="F93" s="7"/>
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
     </row>
-    <row r="94" spans="2:8">
-      <c r="B94" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F94" s="2"/>
+    <row r="94" spans="2:8" hidden="1">
+      <c r="B94" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="13">
+        <v>173.20520000000002</v>
+      </c>
+      <c r="E94" s="14"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
     </row>
     <row r="95" spans="2:8">
-      <c r="B95" s="3" t="s">
-        <v>5</v>
+      <c r="B95" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="14"/>
-      <c r="F95" s="2"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="14"/>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D96" s="15"/>
-    </row>
-    <row r="97" spans="4:4">
-      <c r="D97" s="15"/>
+      <c r="D98" s="15"/>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="D99" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Reservas_internacionales.xlsx
+++ b/Reservas_internacionales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266DE2F6-F3AE-40A3-B982-D428D20C42D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B843FC-BD23-4BB0-9CB5-6C2DEE6B3CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_4" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="22">
   <si>
     <t>Reserva Internacional</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Oct</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -436,8 +436,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D94" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B4:D94" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D95" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B4:D95" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -676,9 +676,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N99"/>
+  <dimension ref="B2:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -741,1120 +741,1138 @@
       </c>
     </row>
     <row r="5" spans="2:14" s="7" customFormat="1">
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>2025</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9">
+        <v>242.0532</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" s="7" customFormat="1">
+      <c r="B6" s="10">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D6" s="11">
         <v>241.71559999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:14" s="7" customFormat="1">
-      <c r="B6" s="8">
+    <row r="7" spans="2:14" s="7" customFormat="1">
+      <c r="B7" s="8">
         <v>2025</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="9">
         <v>239.98160000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="7" customFormat="1">
-      <c r="B7" s="10">
+    <row r="8" spans="2:14" s="7" customFormat="1">
+      <c r="B8" s="10">
         <v>2025</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11">
         <v>239.7184</v>
       </c>
     </row>
-    <row r="8" spans="2:14" s="7" customFormat="1">
-      <c r="B8" s="8">
+    <row r="9" spans="2:14" s="7" customFormat="1">
+      <c r="B9" s="8">
         <v>2025</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <v>237.29920000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:14" s="7" customFormat="1">
-      <c r="B9" s="10">
+    <row r="10" spans="2:14" s="7" customFormat="1">
+      <c r="B10" s="10">
         <v>2025</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>234.3468</v>
       </c>
     </row>
-    <row r="10" spans="2:14" s="7" customFormat="1">
-      <c r="B10" s="12">
+    <row r="11" spans="2:14" s="7" customFormat="1">
+      <c r="B11" s="12">
         <v>2025</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D11" s="13">
         <v>230.76400000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:14" s="7" customFormat="1">
-      <c r="B11" s="10">
+    <row r="12" spans="2:14" s="7" customFormat="1">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>228.9896</v>
       </c>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="2:14" s="7" customFormat="1">
-      <c r="B12" s="8">
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="2:14" s="7" customFormat="1">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <v>228.3922</v>
       </c>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="2:14" s="7" customFormat="1">
-      <c r="B13" s="10">
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="2:14" s="7" customFormat="1">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>226.09610000000001</v>
       </c>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="2:14" s="7" customFormat="1">
-      <c r="B14" s="8">
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="2:14" s="7" customFormat="1">
+      <c r="B15" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>226.7243</v>
       </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="2:14" s="7" customFormat="1">
-      <c r="B15" s="10">
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="2:14" s="7" customFormat="1">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>224.77789999999999</v>
       </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="2:14" ht="18" customHeight="1">
-      <c r="B16" s="8">
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="2:8" ht="18" customHeight="1">
+      <c r="B17" s="8">
         <v>2024</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D17" s="9">
         <v>222.34829999999999</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="2:6" ht="18" customHeight="1">
-      <c r="B17" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="11">
-        <v>219.99689999999998</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="8">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" ht="18" customHeight="1">
+      <c r="B18" s="10">
         <v>2024</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="11">
+        <v>219.99689999999998</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="18"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="9">
         <v>218.72629999999998</v>
       </c>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="10">
+      <c r="F19" s="18"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="10">
         <v>2024</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>217.18979999999999</v>
       </c>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="8">
+      <c r="F20" s="18"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="8">
         <v>2024</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>217.19379999999998</v>
       </c>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="10">
+      <c r="F21" s="18"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="10">
         <v>2024</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>213.72200000000001</v>
       </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="12">
+      <c r="F22" s="18"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="12">
         <v>2024</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <v>213.3159</v>
       </c>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="2:6" hidden="1">
-      <c r="B23" s="16">
+      <c r="F23" s="18"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="2:8" hidden="1">
+      <c r="B24" s="16">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D24" s="17">
         <v>212.7619</v>
       </c>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="2:6" hidden="1">
-      <c r="B24" s="8">
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="2:8" hidden="1">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="9">
         <v>206.83920000000001</v>
       </c>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="2:6" hidden="1">
-      <c r="B25" s="10">
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="2:8" hidden="1">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>204.4032</v>
       </c>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="2:6" hidden="1">
-      <c r="B26" s="8">
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="2:8" hidden="1">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="9">
         <v>203.76760000000002</v>
       </c>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="2:6" hidden="1">
-      <c r="B27" s="10">
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="2:8" hidden="1">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>204.23849999999999</v>
       </c>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="2:6" hidden="1">
-      <c r="B28" s="8">
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="2:8" hidden="1">
+      <c r="B29" s="8">
         <v>2023</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D29" s="9">
         <v>204.07139999999998</v>
       </c>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="2:6" hidden="1">
-      <c r="B29" s="10">
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="2:8" hidden="1">
+      <c r="B30" s="10">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <v>203.20929999999998</v>
       </c>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="2:6" hidden="1">
-      <c r="B30" s="8">
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="2:8" hidden="1">
+      <c r="B31" s="8">
         <v>2023</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="9">
         <v>202.66370000000001</v>
       </c>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="2:6" hidden="1">
-      <c r="B31" s="10">
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="2:8" hidden="1">
+      <c r="B32" s="10">
         <v>2023</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <v>203.10400000000001</v>
       </c>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="2:6" hidden="1">
-      <c r="B32" s="8">
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="8">
         <v>2023</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="9">
         <v>202.33760000000001</v>
       </c>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="2:6" hidden="1">
-      <c r="B33" s="10">
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="10">
         <v>2023</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>200.17829999999998</v>
       </c>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="12">
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="12">
         <v>2023</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <v>200.99789999999999</v>
       </c>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="2:6" hidden="1">
-      <c r="B35" s="10">
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>199.0942</v>
       </c>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="2:6" hidden="1">
-      <c r="B36" s="8">
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="9">
         <v>198.2405</v>
       </c>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="2:6" hidden="1">
-      <c r="B37" s="10">
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>196.84710000000001</v>
       </c>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="2:6" hidden="1">
-      <c r="B38" s="8">
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="9">
         <v>196.91749999999999</v>
       </c>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="2:6" hidden="1">
-      <c r="B39" s="10">
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>198.52929999999998</v>
       </c>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="2:6" hidden="1">
-      <c r="B40" s="8">
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="8">
         <v>2022</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D41" s="9">
         <v>199.47979999999998</v>
       </c>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="2:6" hidden="1">
-      <c r="B41" s="10">
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42" s="10">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <v>198.53700000000001</v>
       </c>
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42" spans="2:6" hidden="1">
-      <c r="B42" s="8">
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43" s="8">
         <v>2022</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="9">
         <v>199.50379999999998</v>
       </c>
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43" spans="2:6" hidden="1">
-      <c r="B43" s="10">
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="10">
         <v>2022</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <v>199.1746</v>
       </c>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="2:6" hidden="1">
-      <c r="B44" s="8">
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="8">
         <v>2022</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="9">
         <v>200.8065</v>
       </c>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" spans="2:6" hidden="1">
-      <c r="B45" s="10">
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="10">
         <v>2022</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>201.6764</v>
       </c>
-      <c r="F45" s="18"/>
-    </row>
-    <row r="46" spans="2:6" hidden="1">
-      <c r="B46" s="12">
+      <c r="F46" s="18"/>
+    </row>
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="12">
         <v>2022</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D47" s="13">
         <v>201.63770000000002</v>
       </c>
-      <c r="F46" s="18"/>
-    </row>
-    <row r="47" spans="2:6" hidden="1">
-      <c r="B47" s="10">
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <v>202.39920000000001</v>
       </c>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" spans="2:6" ht="18" hidden="1" customHeight="1">
-      <c r="B48" s="8">
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" spans="2:6" ht="18" hidden="1" customHeight="1">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="9">
         <v>199.50190000000001</v>
       </c>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" spans="2:6" hidden="1">
-      <c r="B49" s="10">
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" spans="2:6" hidden="1">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>198.85040000000001</v>
       </c>
-      <c r="F49" s="18"/>
-    </row>
-    <row r="50" spans="2:6" hidden="1">
-      <c r="B50" s="8">
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="9">
         <v>198.4144</v>
       </c>
-      <c r="F50" s="18"/>
-    </row>
-    <row r="51" spans="2:6" hidden="1">
-      <c r="B51" s="10">
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>205.51249999999999</v>
       </c>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" spans="2:6" hidden="1">
-      <c r="B52" s="8">
+      <c r="F52" s="18"/>
+    </row>
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="8">
         <v>2021</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D53" s="9">
         <v>193.42370000000003</v>
       </c>
-      <c r="F52" s="18"/>
-    </row>
-    <row r="53" spans="2:6" hidden="1">
-      <c r="B53" s="10">
+      <c r="F53" s="18"/>
+    </row>
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="10">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <v>192.8819</v>
       </c>
-      <c r="F53" s="18"/>
-    </row>
-    <row r="54" spans="2:6" hidden="1">
-      <c r="B54" s="8">
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="8">
         <v>2021</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="9">
         <v>194.09710000000001</v>
       </c>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55" spans="2:6" hidden="1">
-      <c r="B55" s="10">
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="10">
         <v>2021</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <v>195.26760000000002</v>
       </c>
-      <c r="F55" s="18"/>
-    </row>
-    <row r="56" spans="2:6" hidden="1">
-      <c r="B56" s="8">
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="8">
         <v>2021</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="9">
         <v>194.77420000000001</v>
       </c>
-      <c r="F56" s="18"/>
-    </row>
-    <row r="57" spans="2:6" hidden="1">
-      <c r="B57" s="10">
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="10">
         <v>2021</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>195.26949999999999</v>
       </c>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="12">
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="12">
         <v>2021</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D59" s="13">
         <v>195.9461</v>
       </c>
-      <c r="F58" s="18"/>
-    </row>
-    <row r="59" spans="2:6" hidden="1">
-      <c r="B59" s="10">
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <v>195.66720000000001</v>
       </c>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60" spans="2:6" hidden="1">
-      <c r="B60" s="8">
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="9">
         <v>194.28670000000002</v>
       </c>
-      <c r="F60" s="18"/>
-    </row>
-    <row r="61" spans="2:6" hidden="1">
-      <c r="B61" s="10">
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>194.3511</v>
       </c>
-      <c r="F61" s="18"/>
-    </row>
-    <row r="62" spans="2:6" hidden="1">
-      <c r="B62" s="8">
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="9">
         <v>193.95660000000001</v>
       </c>
-      <c r="F62" s="18"/>
-    </row>
-    <row r="63" spans="2:6" hidden="1">
-      <c r="B63" s="10">
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>193.33410000000001</v>
       </c>
-      <c r="F63" s="18"/>
-    </row>
-    <row r="64" spans="2:6" hidden="1">
-      <c r="B64" s="8">
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="8">
         <v>2020</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D65" s="9">
         <v>192.60560000000001</v>
       </c>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="2:6" hidden="1">
-      <c r="B65" s="10">
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="10">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <v>189.61520000000002</v>
       </c>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="2:6" hidden="1">
-      <c r="B66" s="8">
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="8">
         <v>2020</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="9">
         <v>187.31560000000002</v>
       </c>
-      <c r="F66" s="18"/>
-    </row>
-    <row r="67" spans="2:6" hidden="1">
-      <c r="B67" s="10">
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="10">
         <v>2020</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <v>186.65539999999999</v>
       </c>
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68" spans="2:6" hidden="1">
-      <c r="B68" s="8">
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="8">
         <v>2020</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="9">
         <v>185.52879999999999</v>
       </c>
-      <c r="F68" s="18"/>
-    </row>
-    <row r="69" spans="2:6" hidden="1">
-      <c r="B69" s="10">
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="10">
         <v>2020</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>184.24960000000002</v>
       </c>
-      <c r="F69" s="18"/>
-    </row>
-    <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="12">
+      <c r="F70" s="18"/>
+    </row>
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="12">
         <v>2020</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D71" s="13">
         <v>182.79640000000001</v>
       </c>
-      <c r="F70" s="18"/>
-    </row>
-    <row r="71" spans="2:6" hidden="1">
-      <c r="B71" s="10">
+      <c r="F71" s="18"/>
+    </row>
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <v>180.87720000000002</v>
       </c>
-      <c r="F71" s="18"/>
-    </row>
-    <row r="72" spans="2:6" hidden="1">
-      <c r="B72" s="8">
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="9">
         <v>180.59729999999999</v>
       </c>
-      <c r="F72" s="18"/>
-    </row>
-    <row r="73" spans="2:6" hidden="1">
-      <c r="B73" s="10">
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>180.7492</v>
       </c>
-      <c r="F73" s="18"/>
-    </row>
-    <row r="74" spans="2:6" hidden="1">
-      <c r="B74" s="8">
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <v>180.20829999999998</v>
       </c>
-      <c r="F74" s="18"/>
-    </row>
-    <row r="75" spans="2:6" hidden="1">
-      <c r="B75" s="10">
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>180.37700000000001</v>
       </c>
-      <c r="F75" s="18"/>
-    </row>
-    <row r="76" spans="2:6" hidden="1">
-      <c r="B76" s="8">
+      <c r="F76" s="18"/>
+    </row>
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="8">
         <v>2019</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D77" s="9">
         <v>179.00659999999999</v>
       </c>
-      <c r="F76" s="18"/>
-    </row>
-    <row r="77" spans="2:6" hidden="1">
-      <c r="B77" s="10">
+      <c r="F77" s="18"/>
+    </row>
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="10">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>178.86760000000001</v>
       </c>
-      <c r="F77" s="18"/>
-    </row>
-    <row r="78" spans="2:6" hidden="1">
-      <c r="B78" s="8">
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="8">
         <v>2019</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="9">
         <v>177.85589999999999</v>
       </c>
-      <c r="F78" s="18"/>
-    </row>
-    <row r="79" spans="2:6" hidden="1">
-      <c r="B79" s="10">
+      <c r="F79" s="18"/>
+    </row>
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="10">
         <v>2019</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <v>176.74250000000001</v>
       </c>
-      <c r="F79" s="18"/>
-    </row>
-    <row r="80" spans="2:6" hidden="1">
-      <c r="B80" s="8">
+      <c r="F80" s="18"/>
+    </row>
+    <row r="81" spans="2:8" hidden="1">
+      <c r="B81" s="8">
         <v>2019</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="9">
         <v>176.64860000000002</v>
       </c>
-      <c r="F80" s="18"/>
-    </row>
-    <row r="81" spans="2:8" hidden="1">
-      <c r="B81" s="10">
+      <c r="F81" s="18"/>
+    </row>
+    <row r="82" spans="2:8" hidden="1">
+      <c r="B82" s="10">
         <v>2019</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>175.73410000000001</v>
       </c>
-      <c r="F81" s="18"/>
-    </row>
-    <row r="82" spans="2:8" hidden="1">
-      <c r="B82" s="12">
+      <c r="F82" s="18"/>
+    </row>
+    <row r="83" spans="2:8" hidden="1">
+      <c r="B83" s="12">
         <v>2019</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D83" s="13">
         <v>175.57229999999998</v>
       </c>
-      <c r="F82" s="18"/>
-    </row>
-    <row r="83" spans="2:8" hidden="1">
-      <c r="B83" s="10">
+      <c r="F83" s="18"/>
+    </row>
+    <row r="84" spans="2:8" hidden="1">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>174.79249999999999</v>
       </c>
-      <c r="F83" s="18"/>
-    </row>
-    <row r="84" spans="2:8" hidden="1">
-      <c r="B84" s="8">
+      <c r="F84" s="18"/>
+    </row>
+    <row r="85" spans="2:8" hidden="1">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="9">
         <v>173.77529999999999</v>
       </c>
-      <c r="F84" s="18"/>
-    </row>
-    <row r="85" spans="2:8" hidden="1">
-      <c r="B85" s="10">
+      <c r="F85" s="18"/>
+    </row>
+    <row r="86" spans="2:8" hidden="1">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>173.46220000000002</v>
       </c>
-      <c r="F85" s="18"/>
-    </row>
-    <row r="86" spans="2:8" hidden="1">
-      <c r="B86" s="8">
+      <c r="F86" s="18"/>
+    </row>
+    <row r="87" spans="2:8" hidden="1">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="9">
         <v>173.56610000000001</v>
       </c>
-      <c r="F86" s="18"/>
-    </row>
-    <row r="87" spans="2:8" hidden="1">
-      <c r="B87" s="10">
+      <c r="F87" s="18"/>
+    </row>
+    <row r="88" spans="2:8" hidden="1">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <v>173.6061</v>
       </c>
-      <c r="F87" s="18"/>
-    </row>
-    <row r="88" spans="2:8" hidden="1">
-      <c r="B88" s="8">
+      <c r="F88" s="18"/>
+    </row>
+    <row r="89" spans="2:8" hidden="1">
+      <c r="B89" s="8">
         <v>2018</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D89" s="9">
         <v>173.2835</v>
       </c>
-      <c r="F88" s="18"/>
-    </row>
-    <row r="89" spans="2:8" hidden="1">
-      <c r="B89" s="10">
+      <c r="F89" s="18"/>
+    </row>
+    <row r="90" spans="2:8" hidden="1">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <v>173.2114</v>
       </c>
-      <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="2:8" hidden="1">
-      <c r="B90" s="8">
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="2:8" hidden="1">
+      <c r="B91" s="8">
         <v>2018</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D91" s="9">
         <v>173.31120000000001</v>
       </c>
-      <c r="F90" s="7"/>
-    </row>
-    <row r="91" spans="2:8" hidden="1">
-      <c r="B91" s="10">
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="2:8" hidden="1">
+      <c r="B92" s="10">
         <v>2018</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D92" s="11">
         <v>173.1146</v>
       </c>
-      <c r="F91" s="7"/>
-    </row>
-    <row r="92" spans="2:8" hidden="1">
-      <c r="B92" s="8">
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="2:8" hidden="1">
+      <c r="B93" s="8">
         <v>2018</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C93" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D93" s="9">
         <v>173.23160000000001</v>
       </c>
-      <c r="F92" s="7"/>
-    </row>
-    <row r="93" spans="2:8" hidden="1">
-      <c r="B93" s="10">
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" spans="2:8" hidden="1">
+      <c r="B94" s="10">
         <v>2018</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C94" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D94" s="11">
         <v>172.89010000000002</v>
-      </c>
-      <c r="E93" s="14"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-    </row>
-    <row r="94" spans="2:8" hidden="1">
-      <c r="B94" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="13">
-        <v>173.20520000000002</v>
       </c>
       <c r="E94" s="14"/>
       <c r="F94" s="7"/>
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
     </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="14"/>
+    <row r="95" spans="2:8" hidden="1">
+      <c r="B95" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="13">
+        <v>173.20520000000002</v>
+      </c>
       <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
+      <c r="F95" s="7"/>
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="2:6">
-      <c r="B97" s="3" t="s">
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="14"/>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="2:6">
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="2"/>
+      <c r="D98" s="14"/>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D98" s="15"/>
-    </row>
-    <row r="99" spans="2:6">
       <c r="D99" s="15"/>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="D100" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Reservas_internacionales.xlsx
+++ b/Reservas_internacionales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B843FC-BD23-4BB0-9CB5-6C2DEE6B3CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BCFB21-605E-4BF4-AE85-DCC6F316BA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_4" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="22">
   <si>
     <t>Reserva Internacional</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Oct</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -436,8 +436,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D95" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B4:D95" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}" name="Tabla2" displayName="Tabla2" ref="B4:D96" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B4:D96" xr:uid="{67542A4E-E3EE-463E-95F9-F80CE5BDDDD7}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -676,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N100"/>
+  <dimension ref="B2:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -741,1138 +741,1149 @@
       </c>
     </row>
     <row r="5" spans="2:14" s="7" customFormat="1">
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>2025</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="11">
+        <v>244.399</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" s="7" customFormat="1">
+      <c r="B6" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="9">
         <v>242.0532</v>
       </c>
     </row>
-    <row r="6" spans="2:14" s="7" customFormat="1">
-      <c r="B6" s="10">
+    <row r="7" spans="2:14" s="7" customFormat="1">
+      <c r="B7" s="10">
         <v>2025</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <v>241.71559999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="7" customFormat="1">
-      <c r="B7" s="8">
+    <row r="8" spans="2:14" s="7" customFormat="1">
+      <c r="B8" s="8">
         <v>2025</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="9">
         <v>239.98160000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:14" s="7" customFormat="1">
-      <c r="B8" s="10">
+    <row r="9" spans="2:14" s="7" customFormat="1">
+      <c r="B9" s="10">
         <v>2025</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <v>239.7184</v>
       </c>
     </row>
-    <row r="9" spans="2:14" s="7" customFormat="1">
-      <c r="B9" s="8">
+    <row r="10" spans="2:14" s="7" customFormat="1">
+      <c r="B10" s="8">
         <v>2025</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="9">
         <v>237.29920000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:14" s="7" customFormat="1">
-      <c r="B10" s="10">
+    <row r="11" spans="2:14" s="7" customFormat="1">
+      <c r="B11" s="10">
         <v>2025</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>234.3468</v>
       </c>
     </row>
-    <row r="11" spans="2:14" s="7" customFormat="1">
-      <c r="B11" s="12">
+    <row r="12" spans="2:14" s="7" customFormat="1">
+      <c r="B12" s="12">
         <v>2025</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="13">
         <v>230.76400000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:14" s="7" customFormat="1">
-      <c r="B12" s="10">
+    <row r="13" spans="2:14" s="7" customFormat="1">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>228.9896</v>
       </c>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="2:14" s="7" customFormat="1">
-      <c r="B13" s="8">
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="2:14" s="7" customFormat="1">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>228.3922</v>
       </c>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="2:14" s="7" customFormat="1">
-      <c r="B14" s="10">
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="2:14" s="7" customFormat="1">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>226.09610000000001</v>
       </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="2:14" s="7" customFormat="1">
-      <c r="B15" s="8">
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="2:14" s="7" customFormat="1">
+      <c r="B16" s="8">
         <v>2024</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="9">
         <v>226.7243</v>
       </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="2:14" s="7" customFormat="1">
-      <c r="B16" s="10">
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="2:8" s="7" customFormat="1">
+      <c r="B17" s="10">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>224.77789999999999</v>
       </c>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="2:8" ht="18" customHeight="1">
-      <c r="B17" s="8">
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="2:8" ht="18" customHeight="1">
+      <c r="B18" s="8">
         <v>2024</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D18" s="9">
         <v>222.34829999999999</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="18"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="2:8" ht="18" customHeight="1">
-      <c r="B18" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="11">
-        <v>219.99689999999998</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="18"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="8">
+    <row r="19" spans="2:8" ht="18" customHeight="1">
+      <c r="B19" s="10">
         <v>2024</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="9">
-        <v>218.72629999999998</v>
-      </c>
+      <c r="C19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="11">
+        <v>219.99689999999998</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="18"/>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>2024</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="11">
-        <v>217.18979999999999</v>
+      <c r="C20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="9">
+        <v>218.72629999999998</v>
       </c>
       <c r="F20" s="18"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="8">
+      <c r="B21" s="10">
         <v>2024</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="9">
-        <v>217.19379999999998</v>
+      <c r="C21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="11">
+        <v>217.18979999999999</v>
       </c>
       <c r="F21" s="18"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="10">
+      <c r="B22" s="8">
         <v>2024</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="11">
-        <v>213.72200000000001</v>
+      <c r="C22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="9">
+        <v>217.19379999999998</v>
       </c>
       <c r="F22" s="18"/>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>2024</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="13">
-        <v>213.3159</v>
+      <c r="C23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="11">
+        <v>213.72200000000001</v>
       </c>
       <c r="F23" s="18"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8" hidden="1">
-      <c r="B24" s="16">
+    <row r="24" spans="2:8">
+      <c r="B24" s="12">
+        <v>2024</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="13">
+        <v>213.3159</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="2:8" hidden="1">
+      <c r="B25" s="16">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D25" s="17">
         <v>212.7619</v>
       </c>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="2:8" hidden="1">
-      <c r="B25" s="8">
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="2:8" hidden="1">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="9">
         <v>206.83920000000001</v>
       </c>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="2:8" hidden="1">
-      <c r="B26" s="10">
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="2:8" hidden="1">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>204.4032</v>
       </c>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="2:8" hidden="1">
-      <c r="B27" s="8">
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="2:8" hidden="1">
+      <c r="B28" s="8">
         <v>2023</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D28" s="9">
         <v>203.76760000000002</v>
       </c>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="2:8" hidden="1">
-      <c r="B28" s="10">
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="2:8" hidden="1">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>204.23849999999999</v>
       </c>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="2:8" hidden="1">
-      <c r="B29" s="8">
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="2:8" hidden="1">
+      <c r="B30" s="8">
         <v>2023</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="9">
         <v>204.07139999999998</v>
       </c>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="2:8" hidden="1">
-      <c r="B30" s="10">
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="2:8" hidden="1">
+      <c r="B31" s="10">
         <v>2023</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>203.20929999999998</v>
       </c>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="2:8" hidden="1">
-      <c r="B31" s="8">
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="2:8" hidden="1">
+      <c r="B32" s="8">
         <v>2023</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D32" s="9">
         <v>202.66370000000001</v>
       </c>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="2:8" hidden="1">
-      <c r="B32" s="10">
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="10">
         <v>2023</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>203.10400000000001</v>
       </c>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="2:6" hidden="1">
-      <c r="B33" s="8">
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="8">
         <v>2023</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="9">
         <v>202.33760000000001</v>
       </c>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="10">
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="10">
         <v>2023</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>200.17829999999998</v>
       </c>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="2:6" hidden="1">
-      <c r="B35" s="12">
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="12">
         <v>2023</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <v>200.99789999999999</v>
       </c>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="2:6" hidden="1">
-      <c r="B36" s="10">
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>199.0942</v>
       </c>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="2:6" hidden="1">
-      <c r="B37" s="8">
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="9">
         <v>198.2405</v>
       </c>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="2:6" hidden="1">
-      <c r="B38" s="10">
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>196.84710000000001</v>
       </c>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="2:6" hidden="1">
-      <c r="B39" s="8">
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="8">
         <v>2022</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D40" s="9">
         <v>196.91749999999999</v>
       </c>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="2:6" hidden="1">
-      <c r="B40" s="10">
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>198.52929999999998</v>
       </c>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="2:6" hidden="1">
-      <c r="B41" s="8">
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42" s="8">
         <v>2022</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D42" s="9">
         <v>199.47979999999998</v>
       </c>
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42" spans="2:6" hidden="1">
-      <c r="B42" s="10">
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43" s="10">
         <v>2022</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <v>198.53700000000001</v>
       </c>
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43" spans="2:6" hidden="1">
-      <c r="B43" s="8">
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="8">
         <v>2022</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="9">
         <v>199.50379999999998</v>
       </c>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="2:6" hidden="1">
-      <c r="B44" s="10">
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="10">
         <v>2022</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <v>199.1746</v>
       </c>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" spans="2:6" hidden="1">
-      <c r="B45" s="8">
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="8">
         <v>2022</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="9">
         <v>200.8065</v>
       </c>
-      <c r="F45" s="18"/>
-    </row>
-    <row r="46" spans="2:6" hidden="1">
-      <c r="B46" s="10">
+      <c r="F46" s="18"/>
+    </row>
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="10">
         <v>2022</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>201.6764</v>
       </c>
-      <c r="F46" s="18"/>
-    </row>
-    <row r="47" spans="2:6" hidden="1">
-      <c r="B47" s="12">
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="12">
         <v>2022</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="13">
         <v>201.63770000000002</v>
       </c>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" spans="2:6" hidden="1">
-      <c r="B48" s="10">
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <v>202.39920000000001</v>
       </c>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" spans="2:6" ht="18" hidden="1" customHeight="1">
-      <c r="B49" s="8">
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" spans="2:6" ht="18" hidden="1" customHeight="1">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="9">
         <v>199.50190000000001</v>
       </c>
-      <c r="F49" s="18"/>
-    </row>
-    <row r="50" spans="2:6" hidden="1">
-      <c r="B50" s="10">
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>198.85040000000001</v>
       </c>
-      <c r="F50" s="18"/>
-    </row>
-    <row r="51" spans="2:6" hidden="1">
-      <c r="B51" s="8">
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="8">
         <v>2021</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D52" s="9">
         <v>198.4144</v>
       </c>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" spans="2:6" hidden="1">
-      <c r="B52" s="10">
+      <c r="F52" s="18"/>
+    </row>
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <v>205.51249999999999</v>
       </c>
-      <c r="F52" s="18"/>
-    </row>
-    <row r="53" spans="2:6" hidden="1">
-      <c r="B53" s="8">
+      <c r="F53" s="18"/>
+    </row>
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="8">
         <v>2021</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D54" s="9">
         <v>193.42370000000003</v>
       </c>
-      <c r="F53" s="18"/>
-    </row>
-    <row r="54" spans="2:6" hidden="1">
-      <c r="B54" s="10">
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="10">
         <v>2021</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>192.8819</v>
       </c>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55" spans="2:6" hidden="1">
-      <c r="B55" s="8">
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="8">
         <v>2021</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D56" s="9">
         <v>194.09710000000001</v>
       </c>
-      <c r="F55" s="18"/>
-    </row>
-    <row r="56" spans="2:6" hidden="1">
-      <c r="B56" s="10">
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="10">
         <v>2021</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>195.26760000000002</v>
       </c>
-      <c r="F56" s="18"/>
-    </row>
-    <row r="57" spans="2:6" hidden="1">
-      <c r="B57" s="8">
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="8">
         <v>2021</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="9">
         <v>194.77420000000001</v>
       </c>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="10">
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="10">
         <v>2021</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>195.26949999999999</v>
       </c>
-      <c r="F58" s="18"/>
-    </row>
-    <row r="59" spans="2:6" hidden="1">
-      <c r="B59" s="12">
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="12">
         <v>2021</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="13">
         <v>195.9461</v>
       </c>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60" spans="2:6" hidden="1">
-      <c r="B60" s="10">
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>195.66720000000001</v>
       </c>
-      <c r="F60" s="18"/>
-    </row>
-    <row r="61" spans="2:6" hidden="1">
-      <c r="B61" s="8">
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="9">
         <v>194.28670000000002</v>
       </c>
-      <c r="F61" s="18"/>
-    </row>
-    <row r="62" spans="2:6" hidden="1">
-      <c r="B62" s="10">
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>194.3511</v>
       </c>
-      <c r="F62" s="18"/>
-    </row>
-    <row r="63" spans="2:6" hidden="1">
-      <c r="B63" s="8">
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="8">
         <v>2020</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D64" s="9">
         <v>193.95660000000001</v>
       </c>
-      <c r="F63" s="18"/>
-    </row>
-    <row r="64" spans="2:6" hidden="1">
-      <c r="B64" s="10">
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>193.33410000000001</v>
       </c>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="2:6" hidden="1">
-      <c r="B65" s="8">
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="8">
         <v>2020</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D66" s="9">
         <v>192.60560000000001</v>
       </c>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="2:6" hidden="1">
-      <c r="B66" s="10">
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="10">
         <v>2020</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>189.61520000000002</v>
       </c>
-      <c r="F66" s="18"/>
-    </row>
-    <row r="67" spans="2:6" hidden="1">
-      <c r="B67" s="8">
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="8">
         <v>2020</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D68" s="9">
         <v>187.31560000000002</v>
       </c>
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68" spans="2:6" hidden="1">
-      <c r="B68" s="10">
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="10">
         <v>2020</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>186.65539999999999</v>
       </c>
-      <c r="F68" s="18"/>
-    </row>
-    <row r="69" spans="2:6" hidden="1">
-      <c r="B69" s="8">
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="8">
         <v>2020</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="9">
         <v>185.52879999999999</v>
       </c>
-      <c r="F69" s="18"/>
-    </row>
-    <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="10">
+      <c r="F70" s="18"/>
+    </row>
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="10">
         <v>2020</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>184.24960000000002</v>
       </c>
-      <c r="F70" s="18"/>
-    </row>
-    <row r="71" spans="2:6" hidden="1">
-      <c r="B71" s="12">
+      <c r="F71" s="18"/>
+    </row>
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="12">
         <v>2020</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D72" s="13">
         <v>182.79640000000001</v>
       </c>
-      <c r="F71" s="18"/>
-    </row>
-    <row r="72" spans="2:6" hidden="1">
-      <c r="B72" s="10">
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>180.87720000000002</v>
       </c>
-      <c r="F72" s="18"/>
-    </row>
-    <row r="73" spans="2:6" hidden="1">
-      <c r="B73" s="8">
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D74" s="9">
         <v>180.59729999999999</v>
       </c>
-      <c r="F73" s="18"/>
-    </row>
-    <row r="74" spans="2:6" hidden="1">
-      <c r="B74" s="10">
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>180.7492</v>
       </c>
-      <c r="F74" s="18"/>
-    </row>
-    <row r="75" spans="2:6" hidden="1">
-      <c r="B75" s="8">
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="8">
         <v>2019</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D76" s="9">
         <v>180.20829999999998</v>
       </c>
-      <c r="F75" s="18"/>
-    </row>
-    <row r="76" spans="2:6" hidden="1">
-      <c r="B76" s="10">
+      <c r="F76" s="18"/>
+    </row>
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>180.37700000000001</v>
       </c>
-      <c r="F76" s="18"/>
-    </row>
-    <row r="77" spans="2:6" hidden="1">
-      <c r="B77" s="8">
+      <c r="F77" s="18"/>
+    </row>
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="8">
         <v>2019</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D78" s="9">
         <v>179.00659999999999</v>
       </c>
-      <c r="F77" s="18"/>
-    </row>
-    <row r="78" spans="2:6" hidden="1">
-      <c r="B78" s="10">
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="10">
         <v>2019</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>178.86760000000001</v>
       </c>
-      <c r="F78" s="18"/>
-    </row>
-    <row r="79" spans="2:6" hidden="1">
-      <c r="B79" s="8">
+      <c r="F79" s="18"/>
+    </row>
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="8">
         <v>2019</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D80" s="9">
         <v>177.85589999999999</v>
       </c>
-      <c r="F79" s="18"/>
-    </row>
-    <row r="80" spans="2:6" hidden="1">
-      <c r="B80" s="10">
+      <c r="F80" s="18"/>
+    </row>
+    <row r="81" spans="2:8" hidden="1">
+      <c r="B81" s="10">
         <v>2019</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>176.74250000000001</v>
       </c>
-      <c r="F80" s="18"/>
-    </row>
-    <row r="81" spans="2:8" hidden="1">
-      <c r="B81" s="8">
+      <c r="F81" s="18"/>
+    </row>
+    <row r="82" spans="2:8" hidden="1">
+      <c r="B82" s="8">
         <v>2019</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D82" s="9">
         <v>176.64860000000002</v>
       </c>
-      <c r="F81" s="18"/>
-    </row>
-    <row r="82" spans="2:8" hidden="1">
-      <c r="B82" s="10">
+      <c r="F82" s="18"/>
+    </row>
+    <row r="83" spans="2:8" hidden="1">
+      <c r="B83" s="10">
         <v>2019</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>175.73410000000001</v>
       </c>
-      <c r="F82" s="18"/>
-    </row>
-    <row r="83" spans="2:8" hidden="1">
-      <c r="B83" s="12">
+      <c r="F83" s="18"/>
+    </row>
+    <row r="84" spans="2:8" hidden="1">
+      <c r="B84" s="12">
         <v>2019</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D84" s="13">
         <v>175.57229999999998</v>
       </c>
-      <c r="F83" s="18"/>
-    </row>
-    <row r="84" spans="2:8" hidden="1">
-      <c r="B84" s="10">
+      <c r="F84" s="18"/>
+    </row>
+    <row r="85" spans="2:8" hidden="1">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>174.79249999999999</v>
       </c>
-      <c r="F84" s="18"/>
-    </row>
-    <row r="85" spans="2:8" hidden="1">
-      <c r="B85" s="8">
+      <c r="F85" s="18"/>
+    </row>
+    <row r="86" spans="2:8" hidden="1">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D86" s="9">
         <v>173.77529999999999</v>
       </c>
-      <c r="F85" s="18"/>
-    </row>
-    <row r="86" spans="2:8" hidden="1">
-      <c r="B86" s="10">
+      <c r="F86" s="18"/>
+    </row>
+    <row r="87" spans="2:8" hidden="1">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>173.46220000000002</v>
       </c>
-      <c r="F86" s="18"/>
-    </row>
-    <row r="87" spans="2:8" hidden="1">
-      <c r="B87" s="8">
+      <c r="F87" s="18"/>
+    </row>
+    <row r="88" spans="2:8" hidden="1">
+      <c r="B88" s="8">
         <v>2018</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D88" s="9">
         <v>173.56610000000001</v>
       </c>
-      <c r="F87" s="18"/>
-    </row>
-    <row r="88" spans="2:8" hidden="1">
-      <c r="B88" s="10">
+      <c r="F88" s="18"/>
+    </row>
+    <row r="89" spans="2:8" hidden="1">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <v>173.6061</v>
       </c>
-      <c r="F88" s="18"/>
-    </row>
-    <row r="89" spans="2:8" hidden="1">
-      <c r="B89" s="8">
+      <c r="F89" s="18"/>
+    </row>
+    <row r="90" spans="2:8" hidden="1">
+      <c r="B90" s="8">
         <v>2018</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D90" s="9">
         <v>173.2835</v>
       </c>
-      <c r="F89" s="18"/>
-    </row>
-    <row r="90" spans="2:8" hidden="1">
-      <c r="B90" s="10">
+      <c r="F90" s="18"/>
+    </row>
+    <row r="91" spans="2:8" hidden="1">
+      <c r="B91" s="10">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <v>173.2114</v>
       </c>
-      <c r="F90" s="7"/>
-    </row>
-    <row r="91" spans="2:8" hidden="1">
-      <c r="B91" s="8">
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="2:8" hidden="1">
+      <c r="B92" s="8">
         <v>2018</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C92" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D92" s="9">
         <v>173.31120000000001</v>
       </c>
-      <c r="F91" s="7"/>
-    </row>
-    <row r="92" spans="2:8" hidden="1">
-      <c r="B92" s="10">
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="2:8" hidden="1">
+      <c r="B93" s="10">
         <v>2018</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D93" s="11">
         <v>173.1146</v>
       </c>
-      <c r="F92" s="7"/>
-    </row>
-    <row r="93" spans="2:8" hidden="1">
-      <c r="B93" s="8">
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" spans="2:8" hidden="1">
+      <c r="B94" s="8">
         <v>2018</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C94" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D94" s="9">
         <v>173.23160000000001</v>
       </c>
-      <c r="F93" s="7"/>
-    </row>
-    <row r="94" spans="2:8" hidden="1">
-      <c r="B94" s="10">
+      <c r="F94" s="7"/>
+    </row>
+    <row r="95" spans="2:8" hidden="1">
+      <c r="B95" s="10">
         <v>2018</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D95" s="11">
         <v>172.89010000000002</v>
-      </c>
-      <c r="E94" s="14"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-    </row>
-    <row r="95" spans="2:8" hidden="1">
-      <c r="B95" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="13">
-        <v>173.20520000000002</v>
       </c>
       <c r="E95" s="14"/>
       <c r="F95" s="7"/>
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
     </row>
-    <row r="96" spans="2:8">
-      <c r="B96" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="14"/>
+    <row r="96" spans="2:8" hidden="1">
+      <c r="B96" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="13">
+        <v>173.20520000000002</v>
+      </c>
       <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
+      <c r="F96" s="7"/>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
     </row>
-    <row r="97" spans="2:6">
+    <row r="97" spans="2:8">
       <c r="B97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="2:6">
-      <c r="B98" s="3" t="s">
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="14"/>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="2:6">
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="2"/>
+      <c r="D99" s="14"/>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D99" s="15"/>
-    </row>
-    <row r="100" spans="2:6">
       <c r="D100" s="15"/>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="D101" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
